--- a/public/data/data-duerer.xlsx
+++ b/public/data/data-duerer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\duk\InTaVia2023\data-import\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3A3687-19C2-4219-807B-280E50EFFFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC13F50-61E2-4CDB-9B26-9B6AB61D04ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" firstSheet="1" activeTab="9" xr2:uid="{C25329CA-05B7-420C-A3AD-7BFC7999E524}"/>
+    <workbookView xWindow="74865" yWindow="4110" windowWidth="8535" windowHeight="5010" firstSheet="5" activeTab="6" xr2:uid="{C25329CA-05B7-420C-A3AD-7BFC7999E524}"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3713" uniqueCount="1384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3799" uniqueCount="1386">
   <si>
     <t>id</t>
   </si>
@@ -4195,13 +4195,19 @@
   </si>
   <si>
     <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>https://barber.org.uk/wp-content/uploads/2018/06/54.9-Durer500.jpg</t>
+  </si>
+  <si>
+    <t>https://barber.org.uk/albrecht-durer-1471-1528-2/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4264,6 +4270,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4288,10 +4302,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4356,8 +4371,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4944,7 +4961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F870BEB-B6B1-493D-AF20-4CA3C7300BD9}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -4984,8 +5001,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -5241,7 +5258,9 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="3" t="s">
+        <v>1382</v>
+      </c>
       <c r="H14" s="8" t="s">
         <v>638</v>
       </c>
@@ -6802,7 +6821,7 @@
   <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I131" sqref="I131"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -9293,8 +9312,8 @@
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="8.9375" style="3"/>
-    <col min="2" max="2" width="13.29296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.1171875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+    <col min="3" max="3" width="60" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.52734375" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.76171875" style="3" customWidth="1"/>
     <col min="6" max="16384" width="8.9375" style="3"/>
@@ -9321,8 +9340,20 @@
       <c r="A2" s="3" t="s">
         <v>1382</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>186</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6555C001-AF61-499A-ABE7-287E901E3F73}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9332,8 +9363,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:N241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -9348,7 +9379,7 @@
     <col min="8" max="9" width="9.9375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.05859375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.41015625" customWidth="1"/>
-    <col min="12" max="12" width="5.05859375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.46875" customWidth="1"/>
     <col min="13" max="13" width="18.05859375" customWidth="1"/>
     <col min="14" max="14" width="14.05859375" customWidth="1"/>
   </cols>
@@ -9419,7 +9450,9 @@
       <c r="I2" s="8"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
+      <c r="L2" s="8" t="s">
+        <v>305</v>
+      </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
@@ -9471,8 +9504,12 @@
         <v>15</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>767</v>
+      </c>
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.5">
@@ -9523,7 +9560,9 @@
         <v>300</v>
       </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
+      <c r="L8" t="s">
+        <v>208</v>
+      </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
     </row>
@@ -9575,7 +9614,9 @@
         <v>30</v>
       </c>
       <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
+      <c r="L11" t="s">
+        <v>208</v>
+      </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
@@ -9627,7 +9668,9 @@
         <v>90</v>
       </c>
       <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
+      <c r="L14" t="s">
+        <v>208</v>
+      </c>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
     </row>
@@ -9679,7 +9722,9 @@
         <v>90</v>
       </c>
       <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
+      <c r="L17" t="s">
+        <v>208</v>
+      </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
     </row>
@@ -9731,7 +9776,9 @@
         <v>10</v>
       </c>
       <c r="K20" s="7"/>
-      <c r="L20" s="8"/>
+      <c r="L20" s="8" t="s">
+        <v>209</v>
+      </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
     </row>
@@ -9783,7 +9830,9 @@
         <v>8</v>
       </c>
       <c r="K23" s="7"/>
-      <c r="L23" s="8"/>
+      <c r="L23" s="8" t="s">
+        <v>210</v>
+      </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
     </row>
@@ -9837,7 +9886,9 @@
       <c r="K26" s="23" t="s">
         <v>886</v>
       </c>
-      <c r="L26" s="8"/>
+      <c r="L26" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
     </row>
@@ -9889,7 +9940,9 @@
         <v>15</v>
       </c>
       <c r="K29" s="7"/>
-      <c r="L29" s="8"/>
+      <c r="L29" t="s">
+        <v>207</v>
+      </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
     </row>
@@ -9941,7 +9994,9 @@
         <v>10</v>
       </c>
       <c r="K32" s="7"/>
-      <c r="L32" s="8"/>
+      <c r="L32" t="s">
+        <v>207</v>
+      </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
     </row>
@@ -9993,7 +10048,9 @@
         <v>10</v>
       </c>
       <c r="K35" s="7"/>
-      <c r="L35" s="8"/>
+      <c r="L35" t="s">
+        <v>207</v>
+      </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
     </row>
@@ -10045,7 +10102,9 @@
         <v>10</v>
       </c>
       <c r="K38" s="7"/>
-      <c r="L38" s="8"/>
+      <c r="L38" t="s">
+        <v>207</v>
+      </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
     </row>
@@ -10097,7 +10156,9 @@
         <v>3</v>
       </c>
       <c r="K41" s="7"/>
-      <c r="L41" s="8"/>
+      <c r="L41" t="s">
+        <v>414</v>
+      </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
     </row>
@@ -10149,7 +10210,9 @@
         <v>10</v>
       </c>
       <c r="K44" s="7"/>
-      <c r="L44" s="8"/>
+      <c r="L44" t="s">
+        <v>207</v>
+      </c>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
     </row>
@@ -10201,7 +10264,9 @@
         <v>14</v>
       </c>
       <c r="K47" s="7"/>
-      <c r="L47" s="8"/>
+      <c r="L47" t="s">
+        <v>206</v>
+      </c>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
     </row>
@@ -10253,7 +10318,9 @@
         <v>5</v>
       </c>
       <c r="K50" s="7"/>
-      <c r="L50" s="8"/>
+      <c r="L50" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
     </row>
@@ -10305,7 +10372,9 @@
         <v>10</v>
       </c>
       <c r="K53" s="7"/>
-      <c r="L53" s="8"/>
+      <c r="L53" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
     </row>
@@ -10357,7 +10426,9 @@
         <v>4</v>
       </c>
       <c r="K56" s="7"/>
-      <c r="L56" s="8"/>
+      <c r="L56" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
     </row>
@@ -10409,7 +10480,9 @@
         <v>180</v>
       </c>
       <c r="K59" s="7"/>
-      <c r="L59" s="8"/>
+      <c r="L59" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
     </row>
@@ -10461,7 +10534,9 @@
         <v>10</v>
       </c>
       <c r="K62" s="7"/>
-      <c r="L62" s="8"/>
+      <c r="L62" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
     </row>
@@ -10513,7 +10588,9 @@
         <v>300</v>
       </c>
       <c r="K65" s="7"/>
-      <c r="L65" s="8"/>
+      <c r="L65" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
     </row>
@@ -10565,7 +10642,9 @@
         <v>300</v>
       </c>
       <c r="K68" s="7"/>
-      <c r="L68" s="8"/>
+      <c r="L68" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
     </row>
@@ -10617,7 +10696,9 @@
         <v>300</v>
       </c>
       <c r="K71" s="7"/>
-      <c r="L71" s="8"/>
+      <c r="L71" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
     </row>
@@ -10669,7 +10750,9 @@
         <v>250</v>
       </c>
       <c r="K74" s="7"/>
-      <c r="L74" s="8"/>
+      <c r="L74" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
     </row>
@@ -10721,7 +10804,9 @@
         <v>250</v>
       </c>
       <c r="K77" s="7"/>
-      <c r="L77" s="8"/>
+      <c r="L77" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M77" s="8"/>
       <c r="N77" s="8"/>
     </row>
@@ -10773,7 +10858,9 @@
         <v>300</v>
       </c>
       <c r="K80" s="7"/>
-      <c r="L80" s="8"/>
+      <c r="L80" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
     </row>
@@ -10825,7 +10912,9 @@
         <v>300</v>
       </c>
       <c r="K83" s="7"/>
-      <c r="L83" s="8"/>
+      <c r="L83" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
     </row>
@@ -10877,7 +10966,9 @@
         <v>15</v>
       </c>
       <c r="K86" s="7"/>
-      <c r="L86" s="8"/>
+      <c r="L86" t="s">
+        <v>207</v>
+      </c>
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
     </row>
@@ -10929,7 +11020,9 @@
         <v>90</v>
       </c>
       <c r="K89" s="7"/>
-      <c r="L89" s="8"/>
+      <c r="L89" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M89" s="8"/>
       <c r="N89" s="8"/>
     </row>
@@ -10981,7 +11074,9 @@
         <v>90</v>
       </c>
       <c r="K92" s="7"/>
-      <c r="L92" s="8"/>
+      <c r="L92" t="s">
+        <v>208</v>
+      </c>
       <c r="M92" s="8"/>
       <c r="N92" s="8"/>
     </row>
@@ -11033,7 +11128,9 @@
         <v>300</v>
       </c>
       <c r="K95" s="7"/>
-      <c r="L95" s="8"/>
+      <c r="L95" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M95" s="8"/>
       <c r="N95" s="8"/>
     </row>
@@ -11085,7 +11182,9 @@
         <v>90</v>
       </c>
       <c r="K98" s="7"/>
-      <c r="L98" s="8"/>
+      <c r="L98" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
     </row>
@@ -11137,7 +11236,9 @@
         <v>300</v>
       </c>
       <c r="K101" s="7"/>
-      <c r="L101" s="8"/>
+      <c r="L101" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M101" s="8"/>
       <c r="N101" s="8"/>
     </row>
@@ -11189,7 +11290,9 @@
         <v>300</v>
       </c>
       <c r="K104" s="7"/>
-      <c r="L104" s="8"/>
+      <c r="L104" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M104" s="8"/>
       <c r="N104" s="8"/>
     </row>
@@ -11239,7 +11342,9 @@
       <c r="I107" s="8"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
-      <c r="L107" s="8"/>
+      <c r="L107" s="8" t="s">
+        <v>212</v>
+      </c>
       <c r="M107" s="8"/>
       <c r="N107" s="8"/>
     </row>
@@ -11289,7 +11394,9 @@
       <c r="I110" s="8"/>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
-      <c r="L110" s="8"/>
+      <c r="L110" s="8" t="s">
+        <v>212</v>
+      </c>
       <c r="M110" s="8"/>
       <c r="N110" s="8"/>
     </row>
@@ -11341,7 +11448,9 @@
         <v>2</v>
       </c>
       <c r="K113" s="7"/>
-      <c r="L113" s="8"/>
+      <c r="L113" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="M113" s="8"/>
       <c r="N113" s="8"/>
     </row>
@@ -11393,7 +11502,9 @@
         <v>300</v>
       </c>
       <c r="K116" s="7"/>
-      <c r="L116" s="8"/>
+      <c r="L116" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="M116" s="8"/>
       <c r="N116" s="8"/>
     </row>
@@ -11445,7 +11556,9 @@
         <v>8</v>
       </c>
       <c r="K119" s="7"/>
-      <c r="L119" s="8"/>
+      <c r="L119" s="8" t="s">
+        <v>434</v>
+      </c>
       <c r="M119" s="8"/>
       <c r="N119" s="8"/>
     </row>
@@ -11497,7 +11610,9 @@
         <v>120</v>
       </c>
       <c r="K122" s="7"/>
-      <c r="L122" s="8"/>
+      <c r="L122" t="s">
+        <v>208</v>
+      </c>
       <c r="M122" s="8"/>
       <c r="N122" s="8"/>
     </row>
@@ -11549,7 +11664,9 @@
         <v>120</v>
       </c>
       <c r="K125" s="7"/>
-      <c r="L125" s="8"/>
+      <c r="L125" t="s">
+        <v>208</v>
+      </c>
       <c r="M125" s="8"/>
       <c r="N125" s="8"/>
     </row>
@@ -11601,7 +11718,9 @@
         <v>1</v>
       </c>
       <c r="K128" s="7"/>
-      <c r="L128" s="8"/>
+      <c r="L128" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="M128" s="8"/>
       <c r="N128" s="8"/>
     </row>
@@ -11653,7 +11772,9 @@
         <v>15</v>
       </c>
       <c r="K131" s="7"/>
-      <c r="L131" s="8"/>
+      <c r="L131" t="s">
+        <v>208</v>
+      </c>
       <c r="M131" s="8"/>
       <c r="N131" s="8"/>
     </row>
@@ -11705,7 +11826,9 @@
         <v>30</v>
       </c>
       <c r="K134" s="7"/>
-      <c r="L134" s="8"/>
+      <c r="L134" t="s">
+        <v>208</v>
+      </c>
       <c r="M134" s="8"/>
       <c r="N134" s="8"/>
     </row>
@@ -11757,7 +11880,9 @@
         <v>30</v>
       </c>
       <c r="K137" s="7"/>
-      <c r="L137" s="8"/>
+      <c r="L137" t="s">
+        <v>208</v>
+      </c>
       <c r="M137" s="8"/>
       <c r="N137" s="8"/>
     </row>
@@ -11809,7 +11934,9 @@
         <v>30</v>
       </c>
       <c r="K140" s="7"/>
-      <c r="L140" s="8"/>
+      <c r="L140" t="s">
+        <v>208</v>
+      </c>
       <c r="M140" s="8"/>
       <c r="N140" s="8"/>
     </row>
@@ -11861,7 +11988,9 @@
         <v>25</v>
       </c>
       <c r="K143" s="7"/>
-      <c r="L143" s="8"/>
+      <c r="L143" t="s">
+        <v>208</v>
+      </c>
       <c r="M143" s="8"/>
       <c r="N143" s="8"/>
     </row>
@@ -11913,7 +12042,9 @@
         <v>25</v>
       </c>
       <c r="K146" s="7"/>
-      <c r="L146" s="8"/>
+      <c r="L146" t="s">
+        <v>208</v>
+      </c>
       <c r="M146" s="8"/>
       <c r="N146" s="8"/>
     </row>
@@ -11965,7 +12096,9 @@
         <v>25</v>
       </c>
       <c r="K149" s="7"/>
-      <c r="L149" s="8"/>
+      <c r="L149" t="s">
+        <v>208</v>
+      </c>
       <c r="M149" s="8"/>
       <c r="N149" s="8"/>
     </row>
@@ -12017,7 +12150,9 @@
         <v>120</v>
       </c>
       <c r="K152" s="7"/>
-      <c r="L152" s="8"/>
+      <c r="L152" t="s">
+        <v>208</v>
+      </c>
       <c r="M152" s="8"/>
       <c r="N152" s="8"/>
     </row>
@@ -12069,7 +12204,9 @@
         <v>25</v>
       </c>
       <c r="K155" s="7"/>
-      <c r="L155" s="8"/>
+      <c r="L155" t="s">
+        <v>208</v>
+      </c>
       <c r="M155" s="8"/>
       <c r="N155" s="8"/>
     </row>
@@ -12121,7 +12258,9 @@
         <v>300</v>
       </c>
       <c r="K158" s="7"/>
-      <c r="L158" s="8"/>
+      <c r="L158" t="s">
+        <v>208</v>
+      </c>
       <c r="M158" s="8"/>
       <c r="N158" s="8"/>
     </row>
@@ -12173,7 +12312,9 @@
         <v>6</v>
       </c>
       <c r="K161" s="7"/>
-      <c r="L161" s="8"/>
+      <c r="L161" t="s">
+        <v>210</v>
+      </c>
       <c r="M161" s="8"/>
       <c r="N161" s="8"/>
     </row>
@@ -12225,7 +12366,9 @@
         <v>120</v>
       </c>
       <c r="K164" s="7"/>
-      <c r="L164" s="8"/>
+      <c r="L164" t="s">
+        <v>208</v>
+      </c>
       <c r="M164" s="8"/>
       <c r="N164" s="8"/>
     </row>
@@ -12277,7 +12420,9 @@
         <v>210</v>
       </c>
       <c r="K167" s="7"/>
-      <c r="L167" s="8"/>
+      <c r="L167" t="s">
+        <v>208</v>
+      </c>
       <c r="M167" s="8"/>
       <c r="N167" s="8"/>
     </row>
@@ -12329,7 +12474,9 @@
         <v>300</v>
       </c>
       <c r="K170" s="7"/>
-      <c r="L170" s="8"/>
+      <c r="L170" t="s">
+        <v>208</v>
+      </c>
       <c r="M170" s="8"/>
       <c r="N170" s="8"/>
     </row>
@@ -12381,7 +12528,9 @@
         <v>210</v>
       </c>
       <c r="K173" s="7"/>
-      <c r="L173" s="8"/>
+      <c r="L173" t="s">
+        <v>208</v>
+      </c>
       <c r="M173" s="8"/>
       <c r="N173" s="8"/>
     </row>
@@ -12433,7 +12582,9 @@
         <v>210</v>
       </c>
       <c r="K176" s="7"/>
-      <c r="L176" s="8"/>
+      <c r="L176" t="s">
+        <v>208</v>
+      </c>
       <c r="M176" s="8"/>
       <c r="N176" s="8"/>
     </row>
@@ -12485,7 +12636,9 @@
         <v>210</v>
       </c>
       <c r="K179" s="7"/>
-      <c r="L179" s="8"/>
+      <c r="L179" t="s">
+        <v>208</v>
+      </c>
       <c r="M179" s="8"/>
       <c r="N179" s="8"/>
     </row>
@@ -12537,7 +12690,9 @@
         <v>300</v>
       </c>
       <c r="K182" s="7"/>
-      <c r="L182" s="8"/>
+      <c r="L182" t="s">
+        <v>208</v>
+      </c>
       <c r="M182" s="8"/>
       <c r="N182" s="8"/>
     </row>
@@ -12589,7 +12744,9 @@
         <v>15</v>
       </c>
       <c r="K185" s="7"/>
-      <c r="L185" s="8"/>
+      <c r="L185" t="s">
+        <v>208</v>
+      </c>
       <c r="M185" s="8"/>
       <c r="N185" s="8"/>
     </row>
@@ -12641,7 +12798,9 @@
         <v>60</v>
       </c>
       <c r="K188" s="7"/>
-      <c r="L188" s="8"/>
+      <c r="L188" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M188" s="8"/>
       <c r="N188" s="8"/>
     </row>
@@ -12691,7 +12850,9 @@
       <c r="I191" s="8"/>
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
-      <c r="L191" s="8"/>
+      <c r="L191" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M191" s="8"/>
       <c r="N191" s="8"/>
     </row>
@@ -12743,7 +12904,9 @@
         <v>4</v>
       </c>
       <c r="K194" s="7"/>
-      <c r="L194" s="8"/>
+      <c r="L194" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M194" s="8"/>
       <c r="N194" s="8"/>
     </row>
@@ -12795,7 +12958,9 @@
         <v>300</v>
       </c>
       <c r="K197" s="7"/>
-      <c r="L197" s="8"/>
+      <c r="L197" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M197" s="8"/>
       <c r="N197" s="8"/>
     </row>
@@ -12847,7 +13012,9 @@
         <v>15</v>
       </c>
       <c r="K200" s="7"/>
-      <c r="L200" s="8"/>
+      <c r="L200" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M200" s="8"/>
       <c r="N200" s="8"/>
     </row>
@@ -12899,7 +13066,9 @@
         <v>60</v>
       </c>
       <c r="K203" s="7"/>
-      <c r="L203" s="8"/>
+      <c r="L203" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M203" s="8"/>
       <c r="N203" s="8"/>
     </row>
@@ -12951,7 +13120,9 @@
         <v>210</v>
       </c>
       <c r="K206" s="7"/>
-      <c r="L206" s="8"/>
+      <c r="L206" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M206" s="8"/>
       <c r="N206" s="8"/>
     </row>
@@ -13003,7 +13174,9 @@
         <v>120</v>
       </c>
       <c r="K209" s="7"/>
-      <c r="L209" s="8"/>
+      <c r="L209" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M209" s="8"/>
       <c r="N209" s="8"/>
     </row>
@@ -13055,7 +13228,9 @@
         <v>3</v>
       </c>
       <c r="K212" s="7"/>
-      <c r="L212" s="8"/>
+      <c r="L212" s="8" t="s">
+        <v>210</v>
+      </c>
       <c r="M212" s="8"/>
       <c r="N212" s="8"/>
     </row>
@@ -13107,7 +13282,9 @@
         <v>210</v>
       </c>
       <c r="K215" s="7"/>
-      <c r="L215" s="8"/>
+      <c r="L215" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="M215" s="8"/>
       <c r="N215" s="8"/>
     </row>
@@ -13159,7 +13336,9 @@
         <v>60</v>
       </c>
       <c r="K218" s="7"/>
-      <c r="L218" s="8"/>
+      <c r="L218" t="s">
+        <v>208</v>
+      </c>
       <c r="M218" s="8"/>
       <c r="N218" s="8"/>
     </row>
@@ -13211,7 +13390,9 @@
         <v>180</v>
       </c>
       <c r="K221" s="7"/>
-      <c r="L221" s="8"/>
+      <c r="L221" t="s">
+        <v>208</v>
+      </c>
       <c r="M221" s="8"/>
       <c r="N221" s="8"/>
     </row>
@@ -13263,7 +13444,9 @@
         <v>180</v>
       </c>
       <c r="K224" s="7"/>
-      <c r="L224" s="8"/>
+      <c r="L224" t="s">
+        <v>208</v>
+      </c>
       <c r="M224" s="8"/>
       <c r="N224" s="8"/>
     </row>
@@ -13315,7 +13498,9 @@
         <v>180</v>
       </c>
       <c r="K227" s="7"/>
-      <c r="L227" s="8"/>
+      <c r="L227" t="s">
+        <v>208</v>
+      </c>
       <c r="M227" s="8"/>
       <c r="N227" s="8"/>
     </row>
@@ -13367,7 +13552,9 @@
         <v>180</v>
       </c>
       <c r="K230" s="7"/>
-      <c r="L230" s="8"/>
+      <c r="L230" t="s">
+        <v>208</v>
+      </c>
       <c r="M230" s="8"/>
       <c r="N230" s="8"/>
     </row>
@@ -13419,7 +13606,9 @@
         <v>300</v>
       </c>
       <c r="K233" s="7"/>
-      <c r="L233" s="8"/>
+      <c r="L233" t="s">
+        <v>208</v>
+      </c>
       <c r="M233" s="8"/>
       <c r="N233" s="8"/>
     </row>
@@ -13471,7 +13660,9 @@
         <v>210</v>
       </c>
       <c r="K236" s="7"/>
-      <c r="L236" s="8"/>
+      <c r="L236" t="s">
+        <v>208</v>
+      </c>
       <c r="M236" s="8"/>
       <c r="N236" s="8"/>
     </row>
@@ -13523,7 +13714,9 @@
         <v>5</v>
       </c>
       <c r="K239" s="7"/>
-      <c r="L239" s="8"/>
+      <c r="L239" t="s">
+        <v>208</v>
+      </c>
       <c r="M239" s="8"/>
       <c r="N239" s="8"/>
     </row>
@@ -13560,8 +13753,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -15502,8 +15695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DE7CD6-3992-47BC-A701-56D724BB2518}">
   <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView topLeftCell="C72" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="E118" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:XFD127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -19046,6 +19239,9 @@
       <c r="G127" t="s">
         <v>124</v>
       </c>
+      <c r="H127" t="s">
+        <v>753</v>
+      </c>
       <c r="K127" t="s">
         <v>825</v>
       </c>

--- a/public/data/data-duerer.xlsx
+++ b/public/data/data-duerer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\duk\InTaVia2023\data-import\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC13F50-61E2-4CDB-9B26-9B6AB61D04ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFC628D-7D5A-4CD7-A34B-DF1CA718B97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="74865" yWindow="4110" windowWidth="8535" windowHeight="5010" firstSheet="5" activeTab="6" xr2:uid="{C25329CA-05B7-420C-A3AD-7BFC7999E524}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" xr2:uid="{C25329CA-05B7-420C-A3AD-7BFC7999E524}"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3799" uniqueCount="1386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4119" uniqueCount="1580">
   <si>
     <t>id</t>
   </si>
@@ -4185,29 +4185,614 @@
     <t>unplanned stay due to error of coachman, overnight stay, probably Aldenhoven</t>
   </si>
   <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec purus urna, vestibulum at purus eget, ultricies commodo justo. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia curae; Donec ullamcorper sapien at massa convallis, a scelerisque orci pretium. Quisque scelerisque iaculis condimentum. Morbi euismod dui et dignissim vulputate. Vestibulum ut ex in est malesuada finibus sed non risus. Aenean eget lobortis lacus, in vehicula purus.</t>
-  </si>
-  <si>
     <t>m-001</t>
   </si>
   <si>
     <t xml:space="preserve">    </t>
   </si>
   <si>
-    <t>https://barber.org.uk/wp-content/uploads/2018/06/54.9-Durer500.jpg</t>
-  </si>
-  <si>
     <t>https://barber.org.uk/albrecht-durer-1471-1528-2/</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>gnd:118924710</t>
+  </si>
+  <si>
+    <t>gnd:118560093</t>
+  </si>
+  <si>
+    <t>gnd:11852786X</t>
+  </si>
+  <si>
+    <t>gnd:118869051</t>
+  </si>
+  <si>
+    <t>gnd:12231297X</t>
+  </si>
+  <si>
+    <t>gnd:119195380</t>
+  </si>
+  <si>
+    <t>wiki:Q1990389</t>
+  </si>
+  <si>
+    <t>gnd:118771175</t>
+  </si>
+  <si>
+    <t>gnd:118563890</t>
+  </si>
+  <si>
+    <t>gnd:118610430</t>
+  </si>
+  <si>
+    <t>https://uploads2.wikiart.org/images/albrecht-durer/portrait-of-lazarus-ravensburger-and-the-turrets-of-the-court-of-lier-in-antwerp.jpg</t>
+  </si>
+  <si>
+    <t>https://www.wikiart.org/en/albrecht-durer/portrait-of-lazarus-ravensburger-and-the-turrets-of-the-court-of-lier-in-antwerp</t>
+  </si>
+  <si>
+    <t>m-002</t>
+  </si>
+  <si>
+    <t>Portrait of Lazarus Ravensburger and the turrets of the court of Lier in Antwerp</t>
+  </si>
+  <si>
+    <t>A Man with an Oar</t>
+  </si>
+  <si>
+    <t>https://barber.org.uk/wp-content/uploads/2018/06/54.9-Durer1200.jpg</t>
+  </si>
+  <si>
+    <t>m-003</t>
+  </si>
+  <si>
+    <t>Portrait of Jobst Plankfelt</t>
+  </si>
+  <si>
+    <t>http://sammlungenonline.albertina.at/cc/imageproxy.ashx?server=localhost&amp;port=15001&amp;filename=images/3162.JPG</t>
+  </si>
+  <si>
+    <t>m-004</t>
+  </si>
+  <si>
+    <t>Portrait of Felix Hungersperg</t>
+  </si>
+  <si>
+    <t>https://sammlungenonline.albertina.at/?query=search=/record/objectnumbersearch=[3162]&amp;showtype=record</t>
+  </si>
+  <si>
+    <t>https://staedelmuseum.de/go/ds/699z</t>
+  </si>
+  <si>
+    <t>bio-001</t>
+  </si>
+  <si>
+    <t>biographies</t>
+  </si>
+  <si>
+    <t>bio-002</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Albrecht_D%C3%Bcrer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albrecht Dürer (21 May 1471 – 6 April 1528) [...] was a German painter, printmaker, and theorist of the German Renaissance. Born in Nuremberg, Dürer established his reputation and influence across Europe in his twenties due to his high-quality woodcut prints. He was in contact with the major Italian artists of his time, including Raphael, Giovanni Bellini, and Leonardo da Vinci, and from 1512 was patronized by Emperor Maximilian I.
+Dürer's vast body of work includes engravings, his preferred technique in his later prints, altarpieces, portraits and self-portraits, watercolours and books. The woodcuts series are more Gothic than the rest of his work. His well-known engravings include the three Meisterstiche (master prints) Knight, Death and the Devil (1513), Saint Jerome in his Study (1514), and Melencolia I (1514). His watercolours mark him as one of the first European landscape artists, while his woodcuts revolutionised the potential of that medium.
+Dürer's introduction of classical motifs into Northern art, through his knowledge of Italian artists and German humanists, has secured his reputation as one of the most important figures of the Northern Renaissance. This is reinforced by his theoretical treatises, which involve principles of mathematics, perspective, and ideal proportions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agnes Dürer née Frey (1475–1539) was the wife of the German artist Albrecht Dürer. During their marriage, which was childless, she was portrayed several times by Dürer.
+Agnes Dürer was the daughter of the coppersmith and lute maker Hans Frey and his wife Anna, a member of the patrician family Rummel. </t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agnes_D%C3%Bcrer</t>
+  </si>
+  <si>
+    <t>m-005</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/0/02/Agnes_Duerer_1521.jpg</t>
+  </si>
+  <si>
+    <t>Agnes Dürer in traditional Dutch costume</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/File:Agnes_Duerer_1521.jpg</t>
+  </si>
+  <si>
+    <t>"Agnes Dürerin in niederländischer Tracht", Metallstiftzeichnung von Albrecht Dürer.</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Albrecht_D%C3%BCrer_-_1500_self-portrait_(High_resolution_and_detail).jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/dc/Albrecht_D%C3%BCrer_-_1500_self-portrait_%28High_resolution_and_detail%29.jpg</t>
+  </si>
+  <si>
+    <t>m-006</t>
+  </si>
+  <si>
+    <t>m-017</t>
+  </si>
+  <si>
+    <t>m-008</t>
+  </si>
+  <si>
+    <t>m-007</t>
+  </si>
+  <si>
+    <t>m-009</t>
+  </si>
+  <si>
+    <t>m-010</t>
+  </si>
+  <si>
+    <t>m-011</t>
+  </si>
+  <si>
+    <t>m-012</t>
+  </si>
+  <si>
+    <t>m-013</t>
+  </si>
+  <si>
+    <t>m-014</t>
+  </si>
+  <si>
+    <t>m-015</t>
+  </si>
+  <si>
+    <t>m-016</t>
+  </si>
+  <si>
+    <t>m-018</t>
+  </si>
+  <si>
+    <t>m-019</t>
+  </si>
+  <si>
+    <t>m-020</t>
+  </si>
+  <si>
+    <t>m-021</t>
+  </si>
+  <si>
+    <t>m-022</t>
+  </si>
+  <si>
+    <t>m-023</t>
+  </si>
+  <si>
+    <t>https://www.bildindex.de/media/large/mi/03/97/6a/mi03976a05.jpg?Expires=1677759882&amp;Signature=hWeVgz5cjlYCBB2LCiBgpEX8KcG3RfTFq0uPL84nDEqrdHhy5ubRwrJVjKuEWzf92X13ypwWFMGToksoUmCw2HPJSF~1JI8zBmob43tSWRXG7P0H5U3DKehqf2tfXUma7o~ZU42ct2Rf9FcwuOsC6EEw2QvAlzU7pO6W7wfrA18_&amp;Key-Pair-Id=APKAJGHHKKX2FHRP63AQ</t>
+  </si>
+  <si>
+    <t>https://www.bildindex.de/document/obj00030696?medium=mi03976a05&amp;part=1</t>
+  </si>
+  <si>
+    <t>Ein Goldschmied aus Mecheln</t>
+  </si>
+  <si>
+    <t>m-024</t>
+  </si>
+  <si>
+    <t>m-025</t>
+  </si>
+  <si>
+    <t>m-026</t>
+  </si>
+  <si>
+    <t>m-027</t>
+  </si>
+  <si>
+    <t>https://sammlungenonline.albertina.at/?query=search=/record/objectnumbersearch=[3161]&amp;showtype=record</t>
+  </si>
+  <si>
+    <t>https://sammlungenonline.albertina.at/cc/imageproxy.ashx?server=localhost&amp;port=16001&amp;filename=images/3161.JPG</t>
+  </si>
+  <si>
+    <t>https://uploads4.wikiart.org/images/albrecht-durer/portrait-of-paul-martin-and-the-topler-pfinzig.jpg</t>
+  </si>
+  <si>
+    <t>https://www.wikiart.org/en/albrecht-durer/portrait-of-paul-martin-and-the-topler-pfinzig</t>
+  </si>
+  <si>
+    <t>https://www.britishmuseum.org/collection/object/P_1895-0915-982</t>
+  </si>
+  <si>
+    <t>https://media.britishmuseum.org/media/Repository/Documents/2014_11/12_22/3bf094b1_b130_4ca4_b521_a3e1016b5147/large_00136096_001.jpg</t>
+  </si>
+  <si>
+    <t>https://sammlungenonline.albertina.at/?query=search=/record/objectnumbersearch=[22385r]&amp;showtype=record</t>
+  </si>
+  <si>
+    <t>https://sammlungenonline.albertina.at/cc/imageproxy.ashx?server=localhost&amp;port=16001&amp;filename=images/22385r.JPG</t>
+  </si>
+  <si>
+    <t>A girl from Cologne and Agnes Dürer, near Boppard on the Rhine</t>
+  </si>
+  <si>
+    <t>https://rkd.nl/nl/explore/images/293320</t>
+  </si>
+  <si>
+    <t>https://images.rkd.nl/rkd/thumb/650x650/ba2b4991-b4cd-13b3-32f2-55ff2b82af0e.jpg</t>
+  </si>
+  <si>
+    <t>https://www.brabantserfgoed.nl/image/2019/10/29/585646.jpg</t>
+  </si>
+  <si>
+    <t>Een meisje uit Bergen op Zoom (links) en een meisje uit Goes (rechts), getekend door Albrecht Dürer in 1520. (Bron: Chantilly, musée Condé)</t>
+  </si>
+  <si>
+    <t>https://www.brabantserfgoed.nl/page/10266/twee-gewone-vrouwen-uit-bergen-op-zoom-getekend-door-albrecht-d%C3%BCrer</t>
+  </si>
+  <si>
+    <t>https://sammlung.staedelmuseum.de/en/work/the-new-choir-of-st-gertrudis-in-bergen-op-zoom</t>
+  </si>
+  <si>
+    <t>https://media.britishmuseum.org/media/Repository/Documents/2014_9/29_18/64a81b90_f52e_4794_bc34_a3b501317e9c/mid_00154486_001.jpg</t>
+  </si>
+  <si>
+    <t>https://www.britishmuseum.org/collection/object/P_1921-0714-2</t>
+  </si>
+  <si>
+    <t>https://www.britishmuseum.org/collection/image/154487001</t>
+  </si>
+  <si>
+    <t>https://media.britishmuseum.org/media/Repository/Documents/2014_9/29_18/fb886624_b508_4fe4_8242_a3b50131809f/mid_00154487_001.jpg</t>
+  </si>
+  <si>
+    <t>https://www.britishmuseum.org/collection/image/154436001</t>
+  </si>
+  <si>
+    <t>https://media.britishmuseum.org/media/Repository/Documents/2014_9/29_18/f1ae6fad_e277_4ce7_a508_a3b5013182a7/mid_00154436_001.jpg</t>
+  </si>
+  <si>
+    <t>https://www.britishmuseum.org/collection/object/P_1848-1125-3</t>
+  </si>
+  <si>
+    <t>https://media.britishmuseum.org/media/Repository/Documents/2014_9/29_18/43dbb970_504e_4180_b28a_a3b501317bc2/mid_00154434_001.jpg</t>
+  </si>
+  <si>
+    <t>https://sammlungenonline.albertina.at/?query=search=/record/objectnumbersearch=[22385v]&amp;showtype=record</t>
+  </si>
+  <si>
+    <t>https://sammlungenonline.albertina.at/cc/imageproxy.ashx?server=localhost&amp;port=16001&amp;filename=images/22385v.JPG</t>
+  </si>
+  <si>
+    <t>Evtl. Burg Rheinfels bei Goslar und Burg Stolzenfels, aus dem Silberstiftskizzenbuch, das während der Reise in die Niederlande entstand</t>
+  </si>
+  <si>
+    <t>http://www.zeno.org/Kunstwerke/B/D%C3%BCrer,%20Albrecht:%20Zwei%20Burgen</t>
+  </si>
+  <si>
+    <t>Two Castles</t>
+  </si>
+  <si>
+    <t>http://images.zeno.org/Kunstwerke/I/big/2540011a.jpg</t>
+  </si>
+  <si>
+    <t>https://sammlung.staedelmuseum.de/en/work/marx-ulstat-the-beautiful-young-woman-of-antwerp</t>
+  </si>
+  <si>
+    <t>Marx Ulstat; The Beautiful Young Woman of Antwerp, ca. 1520 – 1521</t>
+  </si>
+  <si>
+    <t>m-028</t>
+  </si>
+  <si>
+    <t>m-029</t>
+  </si>
+  <si>
+    <t>m-030</t>
+  </si>
+  <si>
+    <t>m-031</t>
+  </si>
+  <si>
+    <t>m-032</t>
+  </si>
+  <si>
+    <t>m-033</t>
+  </si>
+  <si>
+    <t>m-034</t>
+  </si>
+  <si>
+    <t>m-035</t>
+  </si>
+  <si>
+    <t>https://sammlungenonline.albertina.at/?query=search=/record/objectnumbersearch=[3167]&amp;showtype=record</t>
+  </si>
+  <si>
+    <t>https://sammlungenonline.albertina.at/cc/imageproxy.ashx?server=localhost&amp;port=16001&amp;filename=images/3167.JPG</t>
+  </si>
+  <si>
+    <t>https://sammlungenonline.albertina.at/cc/imageproxy.ashx?server=localhost&amp;port=16001&amp;filename=images/3168.JPG</t>
+  </si>
+  <si>
+    <t>https://sammlungenonline.albertina.at/?query=search=/record/objectnumbersearch=[3176]&amp;showtype=record</t>
+  </si>
+  <si>
+    <t>https://sammlungenonline.albertina.at/cc/imageproxy.ashx?server=localhost&amp;port=16001&amp;filename=images/3176.JPG</t>
+  </si>
+  <si>
+    <t>https://sammlungenonline.albertina.at/?query=search=/record/objectnumbersearch=[3175]&amp;showtype=record</t>
+  </si>
+  <si>
+    <t>https://sammlungenonline.albertina.at/cc/imageproxy.ashx?server=localhost&amp;port=16001&amp;filename=images/3175.JPG</t>
+  </si>
+  <si>
+    <t>https://sammlung.staedelmuseum.de/en/work/agony-in-the-garden</t>
+  </si>
+  <si>
+    <t>https://proxy.europeana.eu/199/item_THLBWXQUDV5ZKB2ILHXPOOBXMZJMKFOH?view=http%3A%2F%2Fwww.bildindex.de%2Fbilder%2Fd%2Fmi04673b05&amp;disposition=inline&amp;api_url=https%3A%2F%2Fapi.europeana.eu%2Fapi</t>
+  </si>
+  <si>
+    <t>https://www.europeana.eu/de/item/199/item_THLBWXQUDV5ZKB2ILHXPOOBXMZJMKFOH</t>
+  </si>
+  <si>
+    <t>https://www.britishmuseum.org/collection/object/P_1910-0212-103</t>
+  </si>
+  <si>
+    <t>https://media.britishmuseum.org/media/Repository/Documents/2014_9/29_18/1cf4fe6c_5bd4_472e_8060_a3b50131e188/mid_00154525_001.jpg</t>
+  </si>
+  <si>
+    <t>https://www.britishmuseum.org/collection/object/P_SL-5218-48</t>
+  </si>
+  <si>
+    <t>Portrait of Christian II of Denmark</t>
+  </si>
+  <si>
+    <t>https://media.britishmuseum.org/media/Repository/Documents/2014_10/4_14/3d509415_1836_4b7b_8cb5_a3ba00f4062f/mid_00238245_001.jpg</t>
+  </si>
+  <si>
+    <t>https://sammlungenonline.albertina.at/cc/imageproxy.ashx?server=localhost&amp;port=16001&amp;filename=images/3163.JPG</t>
+  </si>
+  <si>
+    <t>https://sammlungenonline.albertina.at/?query=search=/record/objectnumbersearch=[3163]&amp;showtype=record</t>
+  </si>
+  <si>
+    <t>https://sammlungenonline.albertina.at/?query=search=/record/objectnumbersearch=[3165]&amp;showtype=record</t>
+  </si>
+  <si>
+    <t>https://sammlungenonline.albertina.at/cc/imageproxy.ashx?server=localhost&amp;port=16001&amp;filename=images/3165.JPG</t>
+  </si>
+  <si>
+    <t>https://www.britishmuseum.org/collection/object/P_SL-5261-167</t>
+  </si>
+  <si>
+    <t>https://media.britishmuseum.org/media/Repository/Documents/2014_9/29_18/1fcc14c8_0932_40d4_b70a_a3b50131c2a7/mid_00154511_001.jpg</t>
+  </si>
+  <si>
+    <t>https://sammlung.staedelmuseum.de/en/work/chandelier-and-coat-of-arms</t>
+  </si>
+  <si>
+    <t>Chandelier and coat of arms, ca. 1521</t>
+  </si>
+  <si>
+    <t>Albrecht Dürer: Self-Portrait with Fur-Trimmed Robe</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Albrecht_D%C3%BCrer_-_Hare,_1502_-_Google_Art_Project.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/44/Albrecht_D%C3%BCrer_-_Hare%2C_1502_-_Google_Art_Project.jpg</t>
+  </si>
+  <si>
+    <t>Young Hare</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Duerer_-_Ritter,_Tod_und_Teufel_(Der_Reuther).jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/8/8e/Duerer_-_Ritter%2C_Tod_und_Teufel_%28Der_Reuther%29.jpg</t>
+  </si>
+  <si>
+    <t>Knight, Death, and the Devil</t>
+  </si>
+  <si>
+    <t>m-036</t>
+  </si>
+  <si>
+    <t>m-037</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:D%C3%BCrer-Hieronymus-im-Geh%C3%A4us.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/ac/D%C3%BCrer-Hieronymus-im-Geh%C3%A4us.jpg</t>
+  </si>
+  <si>
+    <t>Saint Jerome in His Study</t>
+  </si>
+  <si>
+    <t>Melencolia I</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Albrecht_D%C3%BCrer_-_Melencolia_I_-_Google_Art_Project_(_AGDdr3EHmNGyA).jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/7a/Albrecht_D%C3%BCrer_-_Melencolia_I_-_Google_Art_Project_%28_AGDdr3EHmNGyA%29.jpg</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Albrecht-D%C3%BCrer-Haus_i_N%C3%BCrnberg_-_TEK_-_TEKA0115528.tif</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/e/e6/Albrecht-D%C3%BCrer-Haus_i_N%C3%BCrnberg_-_TEK_-_TEKA0115528.tif</t>
+  </si>
+  <si>
+    <t>m-038</t>
+  </si>
+  <si>
+    <t>m-039</t>
+  </si>
+  <si>
+    <t>m-040</t>
+  </si>
+  <si>
+    <t>m-041</t>
+  </si>
+  <si>
+    <t>m-042</t>
+  </si>
+  <si>
+    <t>m-043</t>
+  </si>
+  <si>
+    <t>m-044</t>
+  </si>
+  <si>
+    <t>m-045</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qwesPhquWsE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The video illustrates the making of an engraving, the most demanding graphic technique in Dürer's time, which Dürer introduced to Nuremberg after his journeyman travels. He created more than 100 engravings during his career. </t>
+  </si>
+  <si>
+    <t>https://sammlungenonline.albertina.at/?query=search=/record/objectnumbersearch=[3063]&amp;showtype=record</t>
+  </si>
+  <si>
+    <t>https://sammlungenonline.albertina.at/cc/imageproxy.ashx?server=localhost&amp;port=16001&amp;filename=images/3063.JPG</t>
+  </si>
+  <si>
+    <t>Agnes Dürer ("Mein Agnes")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 year old Dürer made this intimate drawing of "His Agnes" probably shortly before their marriage in spring 1494. Agnes was then only 18 or 19 years old. With rapid pen strokes, Dürer catches this moment of drowsy thoughtfulness. Agnes will become one of Dürer's favourite models. </t>
+  </si>
+  <si>
+    <t>Kupferstich</t>
+  </si>
+  <si>
+    <t>Innsbruck von Norden</t>
+  </si>
+  <si>
+    <t>https://sammlungenonline.albertina.at/cc/imageproxy.ashx?server=localhost&amp;port=16001&amp;filename=images/3056.jpg</t>
+  </si>
+  <si>
+    <t>https://sammlungenonline.albertina.at/?query=search=/record/objectnumbersearch=[3056]&amp;showtype=record</t>
+  </si>
+  <si>
+    <t>This small view of Innsbruck from the North side of the Inn river is full of life. Drawn in 1496, Dürer not only portrays the cityscape on the river Inn and single buildings, but also renders ephemeral effects such as the effects of light or the reflection of houses in the water with great mastery.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 1500, 29-year-old Dürer paints himself in an unprecendented Christ-like manner. The fur coat also refers to his social status as renowned artist and well-situated citizen of Nuremberg.    </t>
+  </si>
+  <si>
+    <t>The "Young Hare", dated 1502, counts among Dürer's most famous works. The highly detailed drawing of the animal still fascinates today.</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Albrecht_D%C3%BCrer_-_Feast_of_Rose_Garlands_-_Google_Art_Project.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/f/f9/Albrecht_D%C3%BCrer_-_Feast_of_Rose_Garlands_-_Google_Art_Project.jpg</t>
+  </si>
+  <si>
+    <t>The "Feast of the Rose Garlands" (1506) is Dürer's most Italianate painting. Among the faithful gathered around the Madonna in a "Holy Conversation", Dürer has depicted himself in the background, proudly presenting a sheet of paper with his signature. The majestic madonna, the floating garments and beautifully shaded colors, the playful putti all remind of Venetian Renaissance paintings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feast of Rose Garlands </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dürer's "Melancholia" (1514) is his best known master engraving. The winged female figure of melancholy, deep in her thoughts, is surrounded by meticulously rendered objects related to geometry, astrology and mathematics. The scribbling putto adds a playful note to this enigmatic scene which culminates in the cry of the beat-like creature. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drei Meisterstiche, Dürer's "Melancholia" (1514) is his best known master engraving. The winged female figure of melancholy, deep in her thoughts, is surrounded by meticulously rendered objects related to geometry, astrology and mathematics. The scribbling putto adds a playful note to this enigmatic scene which culminates in the cry of the beat-like creature. </t>
+  </si>
+  <si>
+    <t>Shortly after his arrival in Antwerp in August 1520, Dürer depicted this view of the harbor of the city. The quickly drawn scene is full of details and gives a lively image of the bustling atmosphere on the shores of the river Schelde.</t>
+  </si>
+  <si>
+    <t>Between 1525 and 1528, Dürer edits his three theoretical treatises, the "Theory of Perspective" (1525), the "Treatise on Fortifications" (1527), and the "Book of Proportions" (1528), published postumously by his wife Agnes. Since the beginning of the 16th century, Dürer had worked on the texts and illustrations, trying to unravel the "secrets of perspective" and different methods to calculate human proportions. Dürer's original German versions were translated into Latin and other languages.</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dürer had worked on the "Book of Proportions" for almost 25 years. It describes different methods how to calculate human proportions - male and female of different contitutions and even children. One chapter is dedicated to movements, another passage to distortions. </t>
+  </si>
+  <si>
+    <t>https://www.nuernberg.museum/img/duerer_epitaph_foto_theo-noll_2021--1-_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.nuernberg.museum/projects/show/1132-albrecht-duerer-grabstaette</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=SpX3BoSucz0C</t>
+  </si>
+  <si>
+    <t>https://books.googleusercontent.com/books/content?req=AKW5QacMsPlzkhSCOohiXYeGljWguMgUQZpwSe9jD-AwX2dY7j4q8PfiYB4m-J-mvsYJpatZ3-Jt4fsCZCAr6gcAHgo8XQBnTUMNt41l5rsg236daxIa9HqNBkAEk1oCCB_F_p0JSetKf7xs-kEVhTq-Qbn_wXgRDnmYyENLKcPb6eOAGx0Bl8OXNIKKcW3JtNG2tTvp5CGcdn6GZGCaZWldzk6J7MFZVTFAIRyRQU9JVsHd9EG09heBzto7hdDbfN9ero7r8UITPVO7i1XxfoE6k1EHShuXtPleOELjtFzm9VrzH7cn7fY</t>
+  </si>
+  <si>
+    <t>Portrait of Agnes Dürer in a Netherlandish costume</t>
+  </si>
+  <si>
+    <t>Dürer's grave</t>
+  </si>
+  <si>
+    <t>Book of Proportions</t>
+  </si>
+  <si>
+    <t>Dürer depicted Agnes several times during their journey, among others he caught her on the ship along the Rhine valley near Boppard. In this silverpoint dawing from Dürer's sketchbook she is matched with a young girl from Cologne who probably fascinated Dürer because of her attire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regarding the Hof van Liere, the major's residence, Dürer explicitely mentions its unsual tower, probably because of its tulip-style top which he documents in a silverpoint drawing. On the same sheet, he draws a portait of Ravensburger, a German merchant in Antwerp whom Dürer encounters severals times.  </t>
+  </si>
+  <si>
+    <t>Park of Royal Palace in Brussels: During his first stay in Brussels, Dürer had the chance to visit the royal palace. From one of the chambers on the upper floor he made this view of the vast, park-like garden of the royal residence. In the foreground, the tournament ground catches his attention.</t>
+  </si>
+  <si>
+    <t>Dürer portraits Aachen Cathedral from an upper floor window of the Town Hall. All architectonical details are clearly represented. Upon closer inspection, however, one disovers that Dürer has added one bay in the choir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The merchant town of Bergen op Zoom is a sort of gateway to Zeeland. While waiting for his ship, Dürer has the chance to visit the town and draw some of its major monuments, among others the picturesque view of Bergen's famous Markiesenhof, the Renaissance castle of the Marquis with its characteristic "tulip" tower. </t>
+  </si>
+  <si>
+    <t>According to the inscription, Dürer depicts this head of a walrus after a real animal which was exhibited in Antwerp in 1521. It is one of his most lively animal portraits. The inscription claims that the walrus was caught "in the Netherlands sea" (e.g. the North See) and was "twelve brabant ells long with four feet”, which is more than 8 metres. Actually, walruses are only around 3.5 metres long.</t>
+  </si>
+  <si>
+    <t>Dürer depicted the two female figures in festive attire on different occasions. The left figure, very elegantly dressed in a somptous court robe and expanding headdress and full of live, was actually copied from a a brass statuette on the tomb of Isabella of Bourbon (d. 1465) in St Michael in Antwerp. The right woman, with a long mantle and characteristic hat, wears a typical attire of certain parts of Central Europe, i.e. Silesia or Eastern Austria, whom Dürer might have encountered in the trading town Antwerp or during the buzzling coronation festivities of Charles V. in Aachen and drawn in silverpoint technique.</t>
+  </si>
+  <si>
+    <t>Lucas van Leyden is a famous painter and graphic artist. He visits Dürer for a day  in spring 1521.</t>
+  </si>
+  <si>
+    <t>Portrait of a man (formerly Joachim Patinir)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dürer's grave is an iconic site since the 16th century. In the 17th century, the painter and founder of the Nuremberg art academy, Joachim von Sandrart, donated a bronze plate in veneration of his hero, and other artists strove to be buried next to Dürer in the Frey family's gravesite. </t>
+  </si>
+  <si>
+    <t>Dürer stirbt in Nürnberg und wird auf dem Johannisfriedhof begraben; Dürer died on April 6, 1528 at the age of 56 in his house in Nuremberg after a short illness. He was buried in the family grave of his parents-in-law on St John's graveyard in Nuremberg. His wife Agnes continued to run the workshop until her own death in 1539. Unlike most artists of his time, Dürer was never forgotten by posterity - on the contrary. Thanks to his outstanding art and self-promotion, his glory remains up until today.</t>
+  </si>
+  <si>
+    <t>Christian II of Denmark, who is married to Charles' V sister and stays at the court of Brussels, commissions Dürer to paint his portrait. The painting is lost, but a drawing gives an impression of Dürer's work.</t>
+  </si>
+  <si>
+    <t>Rheinfels Castle is among the most prominent medieval castles on the Rhine river. Dürer probably made this detailed view of the castle on his high hill during a travel stop or overnight stay.</t>
+  </si>
+  <si>
+    <t>https://nbn-resolving.org/urn:nbn:de:bvb:22-dtl-0000001897</t>
+  </si>
+  <si>
+    <t>Tagebuch der niederländischen Reise in einer Abschrift</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4254,17 +4839,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -4279,7 +4853,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4289,6 +4863,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4304,9 +4884,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4353,16 +4933,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4371,7 +4945,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4690,8 +5269,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4736,7 +5315,9 @@
       <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5"/>
+      <c r="J1" s="5" t="s">
+        <v>1408</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
@@ -4747,14 +5328,21 @@
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>1386</v>
+      </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>1422</v>
+      </c>
       <c r="H2" s="10" t="s">
         <v>214</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>194</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>1407</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
@@ -4766,7 +5354,9 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>1392</v>
+      </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10" t="s">
@@ -4783,7 +5373,9 @@
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>1391</v>
+      </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10" t="s">
@@ -4800,7 +5392,9 @@
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>1393</v>
+      </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10" t="s">
@@ -4819,13 +5413,20 @@
         <v>120</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>1387</v>
+      </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>1415</v>
+      </c>
       <c r="H6" s="10" t="s">
         <v>215</v>
       </c>
       <c r="I6" s="10"/>
+      <c r="J6" t="s">
+        <v>1409</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="10" t="s">
@@ -4857,7 +5458,9 @@
         <v>830</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>1385</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10" t="s">
@@ -4891,7 +5494,9 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>1384</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="10" t="s">
@@ -4908,7 +5513,9 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="10" t="s">
+        <v>1390</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="10" t="s">
@@ -4925,7 +5532,9 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="10" t="s">
+        <v>1388</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="10" t="s">
@@ -4942,9 +5551,13 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="10" t="s">
+        <v>1389</v>
+      </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>1479</v>
+      </c>
       <c r="H13" s="10" t="s">
         <v>214</v>
       </c>
@@ -4959,40 +5572,73 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F870BEB-B6B1-493D-AF20-4CA3C7300BD9}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="86.76171875" customWidth="1"/>
+    <col min="2" max="2" width="20.1171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88" customWidth="1"/>
+    <col min="4" max="4" width="43.17578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="71.7" x14ac:dyDescent="0.5">
-      <c r="A2" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="229.35" x14ac:dyDescent="0.5">
+      <c r="A2" s="26" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="71.7" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B3" t="s">
+        <v>832</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.5">
+      <c r="C18" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B18" t="s">
-        <v>1383</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{443A0509-4DC0-4AD2-8598-6ADC36DEC702}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{B8411DE4-2CD3-4DD6-A0C5-B17E929AD716}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5001,8 +5647,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -5074,7 +5720,9 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="G3" s="3" t="s">
+        <v>1425</v>
+      </c>
       <c r="H3" s="10" t="s">
         <v>186</v>
       </c>
@@ -5089,8 +5737,12 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>1484</v>
+      </c>
       <c r="H4" s="10" t="s">
         <v>186</v>
       </c>
@@ -5108,7 +5760,9 @@
       <c r="F5" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="3" t="s">
+        <v>1485</v>
+      </c>
       <c r="H5" s="10" t="s">
         <v>192</v>
       </c>
@@ -5126,7 +5780,9 @@
       <c r="F6" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>1516</v>
+      </c>
       <c r="H6" s="10" t="s">
         <v>192</v>
       </c>
@@ -5142,9 +5798,11 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="10"/>
+        <v>1553</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>1517</v>
+      </c>
       <c r="H7" s="10" t="s">
         <v>192</v>
       </c>
@@ -5160,7 +5818,9 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>1526</v>
+      </c>
       <c r="H8" s="10" t="s">
         <v>187</v>
       </c>
@@ -5177,8 +5837,12 @@
         <v>170</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>1531</v>
+      </c>
       <c r="H9" s="10" t="s">
         <v>221</v>
       </c>
@@ -5215,19 +5879,20 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
         <v>193</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10" t="s">
+      <c r="F12" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H12" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5259,7 +5924,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="3" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>638</v>
@@ -5275,8 +5940,12 @@
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>1566</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>1396</v>
+      </c>
       <c r="H15" s="8" t="s">
         <v>639</v>
       </c>
@@ -5291,8 +5960,12 @@
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>1566</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>1396</v>
+      </c>
       <c r="H16" s="8" t="s">
         <v>639</v>
       </c>
@@ -5308,7 +5981,9 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>1400</v>
+      </c>
       <c r="H17" s="8" t="s">
         <v>638</v>
       </c>
@@ -5324,7 +5999,9 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>1403</v>
+      </c>
       <c r="H18" s="8" t="s">
         <v>638</v>
       </c>
@@ -5336,11 +6013,15 @@
       <c r="B19" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>1442</v>
+      </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>1425</v>
+      </c>
       <c r="H19" s="8" t="s">
         <v>638</v>
       </c>
@@ -5356,7 +6037,9 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>1424</v>
+      </c>
       <c r="H20" s="8" t="s">
         <v>638</v>
       </c>
@@ -5388,7 +6071,9 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="10" t="s">
+        <v>1426</v>
+      </c>
       <c r="H22" s="8" t="s">
         <v>639</v>
       </c>
@@ -5403,8 +6088,12 @@
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>1427</v>
+      </c>
       <c r="H23" s="8" t="s">
         <v>639</v>
       </c>
@@ -5483,8 +6172,12 @@
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>1428</v>
+      </c>
       <c r="H28" s="8" t="s">
         <v>639</v>
       </c>
@@ -5499,8 +6192,12 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>1428</v>
+      </c>
       <c r="H29" s="8" t="s">
         <v>639</v>
       </c>
@@ -5515,8 +6212,12 @@
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="F30" s="10" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>1429</v>
+      </c>
       <c r="H30" s="8" t="s">
         <v>639</v>
       </c>
@@ -5532,7 +6233,9 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="G31" s="10" t="s">
+        <v>1430</v>
+      </c>
       <c r="H31" s="8" t="s">
         <v>639</v>
       </c>
@@ -5564,7 +6267,9 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="G33" s="10" t="s">
+        <v>1431</v>
+      </c>
       <c r="H33" s="8" t="s">
         <v>639</v>
       </c>
@@ -5596,7 +6301,9 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="G35" s="10" t="s">
+        <v>1432</v>
+      </c>
       <c r="H35" s="8" t="s">
         <v>639</v>
       </c>
@@ -5612,7 +6319,9 @@
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="G36" s="10" t="s">
+        <v>1433</v>
+      </c>
       <c r="H36" s="8" t="s">
         <v>639</v>
       </c>
@@ -5675,8 +6384,12 @@
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="F40" s="10" t="s">
+        <v>1571</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>1423</v>
+      </c>
       <c r="H40" s="8" t="s">
         <v>639</v>
       </c>
@@ -5692,7 +6405,9 @@
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="G41" s="10" t="s">
+        <v>1434</v>
+      </c>
       <c r="H41" s="8" t="s">
         <v>639</v>
       </c>
@@ -5804,7 +6519,9 @@
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="G48" s="10" t="s">
+        <v>1435</v>
+      </c>
       <c r="H48" s="8" t="s">
         <v>639</v>
       </c>
@@ -5835,8 +6552,12 @@
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="F50" s="10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>1436</v>
+      </c>
       <c r="H50" s="8" t="s">
         <v>639</v>
       </c>
@@ -5852,7 +6573,9 @@
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="G51" s="10" t="s">
+        <v>1436</v>
+      </c>
       <c r="H51" s="8" t="s">
         <v>639</v>
       </c>
@@ -5868,7 +6591,9 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="G52" s="10" t="s">
+        <v>1437</v>
+      </c>
       <c r="H52" s="8" t="s">
         <v>639</v>
       </c>
@@ -5884,7 +6609,9 @@
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="G53" s="10" t="s">
+        <v>1437</v>
+      </c>
       <c r="H53" s="8" t="s">
         <v>639</v>
       </c>
@@ -5932,7 +6659,9 @@
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
+      <c r="G56" s="3" t="s">
+        <v>1438</v>
+      </c>
       <c r="H56" s="8" t="s">
         <v>640</v>
       </c>
@@ -5948,7 +6677,9 @@
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
+      <c r="G57" s="3" t="s">
+        <v>1439</v>
+      </c>
       <c r="H57" s="8" t="s">
         <v>640</v>
       </c>
@@ -5964,7 +6695,9 @@
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="G58" s="3" t="s">
+        <v>1443</v>
+      </c>
       <c r="H58" s="8" t="s">
         <v>640</v>
       </c>
@@ -5980,7 +6713,9 @@
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
+      <c r="G59" s="3" t="s">
+        <v>1444</v>
+      </c>
       <c r="H59" s="8" t="s">
         <v>640</v>
       </c>
@@ -5996,7 +6731,9 @@
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
+      <c r="G60" s="3" t="s">
+        <v>1445</v>
+      </c>
       <c r="H60" s="8" t="s">
         <v>638</v>
       </c>
@@ -6012,7 +6749,9 @@
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
+      <c r="G61" s="3" t="s">
+        <v>1446</v>
+      </c>
       <c r="H61" s="8" t="s">
         <v>638</v>
       </c>
@@ -6156,7 +6895,9 @@
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
+      <c r="G70" s="10" t="s">
+        <v>1478</v>
+      </c>
       <c r="H70" s="8" t="s">
         <v>641</v>
       </c>
@@ -6182,7 +6923,7 @@
         <v>617</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>538</v>
+        <v>1573</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -6230,7 +6971,7 @@
         <v>620</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>540</v>
+        <v>1562</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -6245,14 +6986,18 @@
       <c r="A76" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" t="s">
         <v>541</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
+      <c r="F76" s="10" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>1479</v>
+      </c>
       <c r="H76" s="8" t="s">
         <v>641</v>
       </c>
@@ -6267,8 +7012,12 @@
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
+      <c r="F77" s="10" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>1478</v>
+      </c>
       <c r="H77" s="8" t="s">
         <v>639</v>
       </c>
@@ -6316,7 +7065,9 @@
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
+      <c r="G80" s="10" t="s">
+        <v>1480</v>
+      </c>
       <c r="H80" s="8" t="s">
         <v>638</v>
       </c>
@@ -6347,8 +7098,12 @@
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
+      <c r="F82" s="10" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>1481</v>
+      </c>
       <c r="H82" s="8" t="s">
         <v>638</v>
       </c>
@@ -6363,7 +7118,9 @@
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
+      <c r="F83" s="10" t="s">
+        <v>1567</v>
+      </c>
       <c r="G83" s="10"/>
       <c r="H83" s="8" t="s">
         <v>638</v>
@@ -6379,8 +7136,12 @@
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
+      <c r="F84" s="10" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>1482</v>
+      </c>
       <c r="H84" s="8" t="s">
         <v>644</v>
       </c>
@@ -6525,8 +7286,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -6569,10 +7330,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>218</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -6586,10 +7347,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>697</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" t="s">
         <v>137</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -6597,10 +7358,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>698</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" t="s">
         <v>648</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -6608,138 +7369,138 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>699</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>700</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>701</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>702</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>703</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>704</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>705</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>706</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>707</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>708</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>709</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>710</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>711</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>712</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>713</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>714</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>881</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>882</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -6821,7 +7582,7 @@
   <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -9303,58 +10064,928 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F68774-646B-48EE-BDB5-8C878EF20F5A}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="8.9375" style="3"/>
-    <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="60" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.52734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.76171875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.9375" style="3"/>
+    <col min="2" max="2" width="38.29296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="64.703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="57.9375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.52734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.76171875" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.9375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>1382</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>186</v>
+      <c r="D2" s="28" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B8" t="s">
+        <v>488</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B9" t="s">
+        <v>489</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B10" t="s">
+        <v>491</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B11" t="s">
+        <v>492</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B13" t="s">
+        <v>433</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B14" t="s">
+        <v>499</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B15" t="s">
+        <v>501</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B16" t="s">
+        <v>503</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A17" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B17" t="s">
+        <v>504</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A18" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B18" t="s">
+        <v>508</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A19" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B19" t="s">
+        <v>509</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A20" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B20" t="s">
+        <v>516</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A21" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A22" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A23" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B23" t="s">
+        <v>524</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A24" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B24" t="s">
+        <v>525</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A25" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B25" t="s">
+        <v>526</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A26" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B26" t="s">
+        <v>527</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A27" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B27" t="s">
+        <v>528</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A28" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B28" t="s">
+        <v>529</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A29" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B29" t="s">
+        <v>536</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A30" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A31" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A32" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B32" t="s">
+        <v>547</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A33" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B33" t="s">
+        <v>549</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A34" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A35" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A36" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A37" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A38" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A39" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A40" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A41" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A42" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A43" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A44" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A45" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A46" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>1556</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6555C001-AF61-499A-ABE7-287E901E3F73}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{6555C001-AF61-499A-ABE7-287E901E3F73}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{3A277AAE-8FCE-499A-AE78-309DEB57D14E}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{FF537007-C8B6-422B-B764-A977081C356D}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{01803DF9-95A9-4673-B3CF-0AFDC51738A6}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{2035CEB9-3894-4D0E-A800-0EDCBF47DCB0}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{0A79A952-20B9-42A0-96C2-1DF0D3009FCE}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{C448F71C-0442-4884-8E94-74AB850D546C}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{7D5EB142-335B-4476-B272-FD9F53933C39}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{CCDBF689-403E-43A8-BED9-3E755171E066}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{64183D9C-D3CF-4202-B5C3-18F54B30105D}"/>
+    <hyperlink ref="D8" r:id="rId11" display="https://www.bildindex.de/media/large/mi/03/97/6a/mi03976a05.jpg?Expires=1677759882&amp;Signature=hWeVgz5cjlYCBB2LCiBgpEX8KcG3RfTFq0uPL84nDEqrdHhy5ubRwrJVjKuEWzf92X13ypwWFMGToksoUmCw2HPJSF~1JI8zBmob43tSWRXG7P0H5U3DKehqf2tfXUma7o~ZU42ct2Rf9FcwuOsC6EEw2QvAlzU7pO6W7wfrA18_&amp;Key-Pair-Id=APKAJGHHKKX2FHRP63AQ" xr:uid="{2BDCDC4C-CAC4-44B7-B28C-83BD8753952C}"/>
+    <hyperlink ref="C8" r:id="rId12" xr:uid="{63355708-FBD7-4D22-AECF-34AD1D7C138F}"/>
+    <hyperlink ref="C9" r:id="rId13" xr:uid="{480D5B27-8454-41B3-A50B-4ACFFDAE4026}"/>
+    <hyperlink ref="D9" r:id="rId14" xr:uid="{1E9B9CA0-D6F1-4AE0-AE43-7776F5BD6EF1}"/>
+    <hyperlink ref="D10" r:id="rId15" xr:uid="{EA214F1E-4812-477F-90AE-31C9F30296F1}"/>
+    <hyperlink ref="C10" r:id="rId16" xr:uid="{9FE6D3D1-53E9-489A-AB96-5EC7DADDD591}"/>
+    <hyperlink ref="D11" r:id="rId17" xr:uid="{B87A9B74-3BD6-4ED9-98AB-34EDAE07337F}"/>
+    <hyperlink ref="C12" r:id="rId18" xr:uid="{5D03CC0B-DEE3-4FDE-9306-CE5E26709C32}"/>
+    <hyperlink ref="C13" r:id="rId19" xr:uid="{FFAAC713-605F-4948-894C-B32F62D6C8E4}"/>
+    <hyperlink ref="D13" r:id="rId20" xr:uid="{A0893C3E-1C28-467D-9AFC-E8EE4AB9FB89}"/>
+    <hyperlink ref="D14" r:id="rId21" xr:uid="{3F64321A-2515-493E-917E-72B791B9408D}"/>
+    <hyperlink ref="C14" r:id="rId22" xr:uid="{0332E7E1-BC6A-47EA-89D6-97A7068AB01F}"/>
+    <hyperlink ref="C15" r:id="rId23" xr:uid="{6EC68279-7666-4082-ADEA-A2C7658064D2}"/>
+    <hyperlink ref="D16" r:id="rId24" xr:uid="{517CD509-8487-4373-A454-B2B9E47FF545}"/>
+    <hyperlink ref="C16" r:id="rId25" xr:uid="{29844E65-FF0E-4D48-82B8-096506F811E6}"/>
+    <hyperlink ref="C17" r:id="rId26" xr:uid="{28A376E3-CC6D-491B-96A1-EB17AA4EFB22}"/>
+    <hyperlink ref="C18" r:id="rId27" xr:uid="{412FF679-225E-44C0-8E9F-CFBE4329EBC3}"/>
+    <hyperlink ref="D18" r:id="rId28" xr:uid="{F8DEBD7A-3831-43DB-A095-2BC3CECE35C2}"/>
+    <hyperlink ref="C19" r:id="rId29" xr:uid="{7C9CB129-6FFC-4285-AC98-069E1A3CCCC6}"/>
+    <hyperlink ref="D19" r:id="rId30" xr:uid="{CE60D295-56DA-4DAD-ABF8-FA73AB5B855E}"/>
+    <hyperlink ref="C20" r:id="rId31" xr:uid="{234F6491-E60B-4B87-A632-870076D9CCA7}"/>
+    <hyperlink ref="C21" r:id="rId32" xr:uid="{61D9836A-7C7E-4867-ABF5-33BB8C69892E}"/>
+    <hyperlink ref="D21" r:id="rId33" xr:uid="{ABE00576-9886-4B0A-A870-5D91CF571100}"/>
+    <hyperlink ref="C22" r:id="rId34" xr:uid="{D4605030-C409-4AF3-8259-809032BBDE3E}"/>
+    <hyperlink ref="C25" r:id="rId35" xr:uid="{080340CC-9D67-448D-91B8-CF5E61F24528}"/>
+    <hyperlink ref="C26" r:id="rId36" xr:uid="{2C13BE1F-6959-4279-B9CC-BE2550EA0D05}"/>
+    <hyperlink ref="C27" r:id="rId37" xr:uid="{161A5A2E-4114-4985-9828-82028E172B03}"/>
+    <hyperlink ref="D28" r:id="rId38" xr:uid="{C7E1F470-0BA6-453D-B307-2A7B184F5CBB}"/>
+    <hyperlink ref="C28" r:id="rId39" xr:uid="{11E684AC-C433-4034-B87F-E540C77A524F}"/>
+    <hyperlink ref="C29" r:id="rId40" xr:uid="{6B023398-4DAE-4F93-81D4-CF7601909568}"/>
+    <hyperlink ref="C30" r:id="rId41" xr:uid="{0C9432DA-F217-44DE-B2FF-70283A13F215}"/>
+    <hyperlink ref="D30" r:id="rId42" xr:uid="{5AFC87AF-12FB-4162-8E98-DF8E161DC898}"/>
+    <hyperlink ref="D31" r:id="rId43" xr:uid="{55865B39-4DCB-4D60-B607-52D2D3ADFF82}"/>
+    <hyperlink ref="C31" r:id="rId44" xr:uid="{B70145B5-B167-4A5B-8D5E-B5EBC65F3C2B}"/>
+    <hyperlink ref="C32" r:id="rId45" xr:uid="{ED6D5FE2-EE49-483E-B19B-37602DF833A2}"/>
+    <hyperlink ref="D7" r:id="rId46" xr:uid="{F5CD6900-3559-4D8F-8717-FF92BEE78CF8}"/>
+    <hyperlink ref="C35" r:id="rId47" xr:uid="{DBA5A372-746C-4C4C-815B-81F869194C86}"/>
+    <hyperlink ref="D35" r:id="rId48" xr:uid="{4D09EA8C-4FA5-43D4-83C6-8F98113BD100}"/>
+    <hyperlink ref="C36" r:id="rId49" xr:uid="{FEDE9C89-95F5-405A-B824-83ACDC1592FF}"/>
+    <hyperlink ref="C37" r:id="rId50" xr:uid="{8E39BE0E-9C8D-4504-94B0-4A6D54597337}"/>
+    <hyperlink ref="D37" r:id="rId51" xr:uid="{4F366ACA-E9DC-4D82-A164-F3C23305A963}"/>
+    <hyperlink ref="C38" r:id="rId52" xr:uid="{1ED5BD43-7A12-48C2-BC69-8F0EBCC5B3A0}"/>
+    <hyperlink ref="D38" r:id="rId53" xr:uid="{F2EA09DA-74A9-46C8-AF66-8E4B1AB4C1B9}"/>
+    <hyperlink ref="C39" r:id="rId54" xr:uid="{049280BA-CFC9-44A0-A076-2331B0E40C26}"/>
+    <hyperlink ref="C40" r:id="rId55" xr:uid="{9C52C1E3-7BD1-4B41-A23E-81A351F47D54}"/>
+    <hyperlink ref="D40" r:id="rId56" xr:uid="{EC6045AC-7661-4396-876E-A185378B4D91}"/>
+    <hyperlink ref="C41" r:id="rId57" xr:uid="{D1BD7645-D58F-40F7-978F-383E3AB8995C}"/>
+    <hyperlink ref="D42" r:id="rId58" xr:uid="{6DA96B2C-01E1-4702-8D73-C6CB924302ED}"/>
+    <hyperlink ref="C42" r:id="rId59" xr:uid="{70FE4ABE-035F-4403-A099-051396E69EF1}"/>
+    <hyperlink ref="C43" r:id="rId60" xr:uid="{A6B885F7-852B-4C3F-896A-81B7A4085B52}"/>
+    <hyperlink ref="D45" r:id="rId61" xr:uid="{2AFA1DCA-150C-4E59-B51B-408C4EE4D9F1}"/>
+    <hyperlink ref="C45" r:id="rId62" xr:uid="{7C291294-21B9-4C11-8570-25513F54FB58}"/>
+    <hyperlink ref="C44" r:id="rId63" xr:uid="{CBEA5E2B-AF57-44B8-A639-1B5A04764DA8}"/>
+    <hyperlink ref="D44" r:id="rId64" display="https://books.googleusercontent.com/books/content?req=AKW5QacMsPlzkhSCOohiXYeGljWguMgUQZpwSe9jD-AwX2dY7j4q8PfiYB4m-J-mvsYJpatZ3-Jt4fsCZCAr6gcAHgo8XQBnTUMNt41l5rsg236daxIa9HqNBkAEk1oCCB_F_p0JSetKf7xs-kEVhTq-Qbn_wXgRDnmYyENLKcPb6eOAGx0Bl8OXNIKKcW3JtNG2tTvp5CGcdn6GZGCaZWldzk6J7MFZVTFAIRyRQU9JVsHd9EG09heBzto7hdDbfN9ero7r8UITPVO7i1XxfoE6k1EHShuXtPleOELjtFzm9VrzH7cn7fY" xr:uid="{90E85313-5E40-414D-9C42-229BB197B0DE}"/>
+    <hyperlink ref="C46" r:id="rId65" xr:uid="{F2BAF4A6-985D-44AC-9ECB-2096E65D0F5C}"/>
+    <hyperlink ref="D46" r:id="rId66" xr:uid="{E6F296C4-41E7-4352-9AA6-816879210698}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId67"/>
 </worksheet>
 </file>
 
@@ -9363,8 +10994,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:N241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -13753,8 +15384,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -13833,7 +15464,7 @@
       <c r="D2" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="24" t="s">
         <v>87</v>
       </c>
       <c r="F2" s="11" t="s">
@@ -13867,7 +15498,7 @@
       <c r="D3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -14091,7 +15722,7 @@
       <c r="D11" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="24" t="s">
         <v>125</v>
       </c>
       <c r="F11" s="11" t="s">
@@ -14227,7 +15858,7 @@
       <c r="D15" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="24" t="s">
         <v>127</v>
       </c>
       <c r="F15" s="11" t="s">
@@ -14259,7 +15890,7 @@
       <c r="D16" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="26"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="12"/>
@@ -14475,7 +16106,7 @@
       <c r="D24" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="24" t="s">
         <v>148</v>
       </c>
       <c r="F24" s="11" t="s">
@@ -14509,7 +16140,7 @@
       <c r="D25" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="24" t="s">
         <v>148</v>
       </c>
       <c r="F25" s="11" t="s">
@@ -14543,7 +16174,7 @@
       <c r="D26" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="24" t="s">
         <v>148</v>
       </c>
       <c r="F26" s="11" t="s">
@@ -14911,7 +16542,7 @@
       <c r="D39" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="24" t="s">
         <v>220</v>
       </c>
       <c r="F39" s="11" t="s">
@@ -15664,7 +17295,7 @@
         <v>99</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>173</v>
+        <v>1575</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>172</v>
@@ -15695,8 +17326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DE7CD6-3992-47BC-A701-56D724BB2518}">
   <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView topLeftCell="E118" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:XFD127"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -15708,46 +17339,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>836</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="25" t="s">
         <v>21</v>
       </c>
     </row>

--- a/public/data/data-duerer.xlsx
+++ b/public/data/data-duerer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\duk\InTaVia2023\data-import\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFC628D-7D5A-4CD7-A34B-DF1CA718B97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174BC348-ABBC-4795-B895-0B62602C4357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" xr2:uid="{C25329CA-05B7-420C-A3AD-7BFC7999E524}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" firstSheet="1" activeTab="9" xr2:uid="{C25329CA-05B7-420C-A3AD-7BFC7999E524}"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4119" uniqueCount="1580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4116" uniqueCount="1581">
   <si>
     <t>id</t>
   </si>
@@ -4213,9 +4213,6 @@
   </si>
   <si>
     <t>gnd:119195380</t>
-  </si>
-  <si>
-    <t>wiki:Q1990389</t>
   </si>
   <si>
     <t>gnd:118771175</t>
@@ -4786,6 +4783,12 @@
   </si>
   <si>
     <t>Tagebuch der niederländischen Reise in einer Abschrift</t>
+  </si>
+  <si>
+    <t>q:Q1990389</t>
+  </si>
+  <si>
+    <t>citation</t>
   </si>
 </sst>
 </file>
@@ -5269,8 +5272,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -5316,7 +5319,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
@@ -5333,7 +5336,7 @@
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>214</v>
@@ -5342,7 +5345,7 @@
         <v>194</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
@@ -5355,7 +5358,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -5374,7 +5377,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -5393,7 +5396,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -5418,14 +5421,14 @@
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>215</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
@@ -5514,7 +5517,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="10" t="s">
-        <v>1390</v>
+        <v>1579</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5556,7 +5559,7 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>214</v>
@@ -5572,70 +5575,60 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F870BEB-B6B1-493D-AF20-4CA3C7300BD9}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="20.1171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88" customWidth="1"/>
-    <col min="4" max="4" width="43.17578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88" customWidth="1"/>
+    <col min="3" max="3" width="43.17578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>1409</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="229.35" x14ac:dyDescent="0.5">
+      <c r="A2" s="26" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>1410</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="229.35" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="27" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="71.7" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>1412</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="71.7" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>1409</v>
-      </c>
-      <c r="B3" t="s">
-        <v>832</v>
-      </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>1413</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.5">
-      <c r="C18" t="s">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B18" t="s">
         <v>1381</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{443A0509-4DC0-4AD2-8598-6ADC36DEC702}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{B8411DE4-2CD3-4DD6-A0C5-B17E929AD716}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{443A0509-4DC0-4AD2-8598-6ADC36DEC702}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{B8411DE4-2CD3-4DD6-A0C5-B17E929AD716}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -5648,7 +5641,7 @@
   <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -5721,7 +5714,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="3" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>186</v>
@@ -5738,10 +5731,10 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>186</v>
@@ -5761,7 +5754,7 @@
         <v>162</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>192</v>
@@ -5781,7 +5774,7 @@
         <v>162</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>192</v>
@@ -5798,10 +5791,10 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>192</v>
@@ -5819,7 +5812,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>187</v>
@@ -5838,10 +5831,10 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>221</v>
@@ -5887,10 +5880,10 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H12" t="s">
         <v>186</v>
@@ -5941,10 +5934,10 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>639</v>
@@ -5961,10 +5954,10 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>639</v>
@@ -5982,7 +5975,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>638</v>
@@ -6000,7 +5993,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>638</v>
@@ -6014,13 +6007,13 @@
         <v>488</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>638</v>
@@ -6038,7 +6031,7 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>638</v>
@@ -6072,7 +6065,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>639</v>
@@ -6089,10 +6082,10 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>639</v>
@@ -6173,10 +6166,10 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>639</v>
@@ -6193,10 +6186,10 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>639</v>
@@ -6213,10 +6206,10 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>639</v>
@@ -6234,7 +6227,7 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>639</v>
@@ -6268,7 +6261,7 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>639</v>
@@ -6302,7 +6295,7 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>639</v>
@@ -6320,7 +6313,7 @@
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>639</v>
@@ -6385,10 +6378,10 @@
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>639</v>
@@ -6406,7 +6399,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>639</v>
@@ -6520,7 +6513,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>639</v>
@@ -6553,10 +6546,10 @@
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>639</v>
@@ -6574,7 +6567,7 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>639</v>
@@ -6592,7 +6585,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>639</v>
@@ -6610,7 +6603,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>639</v>
@@ -6660,7 +6653,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>640</v>
@@ -6678,7 +6671,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>640</v>
@@ -6696,7 +6689,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="3" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>640</v>
@@ -6714,7 +6707,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="3" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>640</v>
@@ -6732,7 +6725,7 @@
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="3" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>638</v>
@@ -6750,7 +6743,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="3" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>638</v>
@@ -6896,7 +6889,7 @@
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
       <c r="G70" s="10" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>641</v>
@@ -6923,7 +6916,7 @@
         <v>617</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -6971,7 +6964,7 @@
         <v>620</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -6993,10 +6986,10 @@
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
       <c r="F76" s="10" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>641</v>
@@ -7013,10 +7006,10 @@
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="10" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H77" s="8" t="s">
         <v>639</v>
@@ -7066,7 +7059,7 @@
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
       <c r="G80" s="10" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>638</v>
@@ -7099,10 +7092,10 @@
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
       <c r="F82" s="10" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H82" s="8" t="s">
         <v>638</v>
@@ -7119,7 +7112,7 @@
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="8" t="s">
@@ -7137,10 +7130,10 @@
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H84" s="8" t="s">
         <v>644</v>
@@ -10066,7 +10059,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A47" sqref="A47:A53"/>
     </sheetView>
   </sheetViews>
@@ -10106,13 +10099,13 @@
         <v>1380</v>
       </c>
       <c r="B2" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>1382</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1383</v>
@@ -10120,33 +10113,33 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B3" t="s">
         <v>1396</v>
       </c>
-      <c r="B3" t="s">
-        <v>1397</v>
-      </c>
       <c r="C3" s="28" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B4" t="s">
         <v>1400</v>
       </c>
-      <c r="B4" t="s">
-        <v>1401</v>
-      </c>
       <c r="C4" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="3" t="s">
@@ -10155,16 +10148,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B5" t="s">
         <v>1403</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="28" t="s">
         <v>1404</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>1405</v>
-      </c>
       <c r="D5" s="28" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>1383</v>
@@ -10172,56 +10165,56 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>1415</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>1416</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="F6" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B7" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C7" s="28" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>1420</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>1421</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B8" t="s">
         <v>488</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>1383</v>
@@ -10229,16 +10222,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B9" t="s">
         <v>489</v>
       </c>
       <c r="C9" s="28" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>1447</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>1448</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>1383</v>
@@ -10246,16 +10239,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B10" t="s">
         <v>491</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>1383</v>
@@ -10263,93 +10256,93 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B11" t="s">
         <v>492</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>1451</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>1452</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B12" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C12" s="28" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>1453</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>1454</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="F12" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B13" t="s">
         <v>433</v>
       </c>
       <c r="C13" s="28" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>1456</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>1457</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B14" t="s">
         <v>499</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B15" t="s">
         <v>501</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="3" t="s">
@@ -10358,16 +10351,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B16" t="s">
         <v>503</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>1383</v>
@@ -10375,16 +10368,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B17" t="s">
         <v>504</v>
       </c>
       <c r="C17" s="28" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>1464</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>1465</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>1383</v>
@@ -10392,36 +10385,36 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B18" t="s">
         <v>508</v>
       </c>
       <c r="C18" s="28" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D18" s="28" t="s">
         <v>1466</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>1467</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B19" t="s">
         <v>509</v>
       </c>
       <c r="C19" s="28" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>1468</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>1469</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>1383</v>
@@ -10429,16 +10422,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B20" t="s">
         <v>516</v>
       </c>
       <c r="C20" s="28" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>1471</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>1383</v>
@@ -10446,33 +10439,33 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B21" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D21" s="28" t="s">
         <v>1474</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>1473</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>1475</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22" s="3" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B22" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="3" t="s">
@@ -10481,16 +10474,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B23" t="s">
         <v>524</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>1486</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>1487</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>1383</v>
@@ -10498,16 +10491,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B24" t="s">
         <v>525</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>1487</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>1488</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>1383</v>
@@ -10515,16 +10508,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B25" t="s">
         <v>526</v>
       </c>
       <c r="C25" s="28" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>1489</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>1490</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>1383</v>
@@ -10532,16 +10525,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B26" t="s">
         <v>527</v>
       </c>
       <c r="C26" s="28" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>1491</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>1492</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>1383</v>
@@ -10549,13 +10542,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B27" t="s">
         <v>528</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>1383</v>
@@ -10563,16 +10556,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B28" t="s">
         <v>529</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>1383</v>
@@ -10580,16 +10573,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B29" t="s">
         <v>536</v>
       </c>
       <c r="C29" s="28" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>1496</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>1497</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>1383</v>
@@ -10597,36 +10590,36 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A30" s="3" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B30" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D30" s="28" t="s">
         <v>1499</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>1500</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B31" t="s">
         <v>545</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>1383</v>
@@ -10634,53 +10627,53 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B32" t="s">
         <v>547</v>
       </c>
       <c r="C32" s="28" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>1503</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>1504</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B33" t="s">
         <v>549</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>1505</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>1506</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B34" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>1383</v>
@@ -10688,36 +10681,36 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C35" s="28" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D35" s="28" t="s">
         <v>1510</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>1511</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C36" s="28" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>1513</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>1514</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>1383</v>
@@ -10725,16 +10718,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C37" s="28" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D37" s="28" t="s">
         <v>1518</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>1519</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>1383</v>
@@ -10742,36 +10735,36 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38" s="3" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C38" s="28" t="s">
         <v>1521</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="D38" s="31" t="s">
         <v>1522</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>1523</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A39" s="3" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C39" s="28" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>1524</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>1525</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>1383</v>
@@ -10779,139 +10772,139 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C40" s="28" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>1535</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>1535</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A41" s="3" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C41" s="28" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>1537</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>1538</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A42" s="3" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D42" s="28" t="s">
         <v>1542</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>1544</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>1543</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A43" s="3" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C43" s="28" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>1548</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>1549</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C44" s="28" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D44" s="28" t="s">
         <v>1560</v>
       </c>
-      <c r="D44" s="28" t="s">
-        <v>1561</v>
-      </c>
       <c r="E44" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>1556</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A45" s="3" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A46" s="3" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
   </sheetData>
@@ -17295,7 +17288,7 @@
         <v>99</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>172</v>
@@ -17326,7 +17319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DE7CD6-3992-47BC-A701-56D724BB2518}">
   <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
+    <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>

--- a/public/data/data-duerer.xlsx
+++ b/public/data/data-duerer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\duk\InTaVia2023\data-import\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174BC348-ABBC-4795-B895-0B62602C4357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896869D7-E964-44F0-A644-63B744B7D4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" firstSheet="1" activeTab="9" xr2:uid="{C25329CA-05B7-420C-A3AD-7BFC7999E524}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" firstSheet="1" activeTab="7" xr2:uid="{C25329CA-05B7-420C-A3AD-7BFC7999E524}"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4116" uniqueCount="1581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4119" uniqueCount="1579">
   <si>
     <t>id</t>
   </si>
@@ -2581,15 +2581,6 @@
   </si>
   <si>
     <t>Erste Italienreise: Südtirol</t>
-  </si>
-  <si>
-    <t>Hauptstandort: Südtirol</t>
-  </si>
-  <si>
-    <t>Besuch Margaretes von Österreich (1521): Südtirol</t>
-  </si>
-  <si>
-    <t>Theoretische Schriften zur Perspektive, menschlichen Proportion und dem Festungsbau in deutscher Sprache: Südtirol</t>
   </si>
   <si>
     <t>Erste Italienreise: Trentino</t>
@@ -4789,6 +4780,9 @@
   </si>
   <si>
     <t>citation</t>
+  </si>
+  <si>
+    <t>is gravesite</t>
   </si>
 </sst>
 </file>
@@ -5319,7 +5313,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
@@ -5332,11 +5326,11 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>214</v>
@@ -5345,7 +5339,7 @@
         <v>194</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
@@ -5358,7 +5352,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -5377,7 +5371,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -5396,7 +5390,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -5417,18 +5411,18 @@
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>215</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
@@ -5462,7 +5456,7 @@
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -5498,7 +5492,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5517,7 +5511,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="10" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5536,7 +5530,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="10" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -5555,11 +5549,11 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="10" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>214</v>
@@ -5577,7 +5571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F870BEB-B6B1-493D-AF20-4CA3C7300BD9}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -5592,37 +5586,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="229.35" x14ac:dyDescent="0.5">
       <c r="A2" s="26" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B18" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
   </sheetData>
@@ -5714,7 +5708,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="3" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>186</v>
@@ -5731,10 +5725,10 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>186</v>
@@ -5754,7 +5748,7 @@
         <v>162</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>192</v>
@@ -5774,7 +5768,7 @@
         <v>162</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>192</v>
@@ -5791,10 +5785,10 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>192</v>
@@ -5812,7 +5806,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>187</v>
@@ -5831,10 +5825,10 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>221</v>
@@ -5880,10 +5874,10 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="H12" t="s">
         <v>186</v>
@@ -5917,7 +5911,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="3" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>638</v>
@@ -5934,10 +5928,10 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>639</v>
@@ -5954,10 +5948,10 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>639</v>
@@ -5975,7 +5969,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>638</v>
@@ -5993,7 +5987,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>638</v>
@@ -6007,13 +6001,13 @@
         <v>488</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>638</v>
@@ -6031,7 +6025,7 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>638</v>
@@ -6065,7 +6059,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>639</v>
@@ -6082,10 +6076,10 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>639</v>
@@ -6166,10 +6160,10 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>639</v>
@@ -6186,10 +6180,10 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>639</v>
@@ -6206,10 +6200,10 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>639</v>
@@ -6227,7 +6221,7 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>639</v>
@@ -6261,7 +6255,7 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>639</v>
@@ -6295,7 +6289,7 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>639</v>
@@ -6313,7 +6307,7 @@
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>639</v>
@@ -6378,10 +6372,10 @@
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>639</v>
@@ -6399,7 +6393,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>639</v>
@@ -6513,7 +6507,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>639</v>
@@ -6546,10 +6540,10 @@
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>639</v>
@@ -6567,7 +6561,7 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>639</v>
@@ -6585,7 +6579,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>639</v>
@@ -6603,7 +6597,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>639</v>
@@ -6653,7 +6647,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="3" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>640</v>
@@ -6671,7 +6665,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="3" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>640</v>
@@ -6689,7 +6683,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="3" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>640</v>
@@ -6707,7 +6701,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="3" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>640</v>
@@ -6725,7 +6719,7 @@
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="3" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>638</v>
@@ -6743,7 +6737,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="3" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>638</v>
@@ -6889,7 +6883,7 @@
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
       <c r="G70" s="10" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>641</v>
@@ -6916,7 +6910,7 @@
         <v>617</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -6964,7 +6958,7 @@
         <v>620</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -6986,10 +6980,10 @@
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
       <c r="F76" s="10" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>641</v>
@@ -7006,10 +7000,10 @@
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="10" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="H77" s="8" t="s">
         <v>639</v>
@@ -7059,7 +7053,7 @@
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
       <c r="G80" s="10" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>638</v>
@@ -7092,10 +7086,10 @@
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
       <c r="F82" s="10" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="H82" s="8" t="s">
         <v>638</v>
@@ -7112,7 +7106,7 @@
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="8" t="s">
@@ -7130,10 +7124,10 @@
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="H84" s="8" t="s">
         <v>644</v>
@@ -7280,7 +7274,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -7491,13 +7485,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B21" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -7574,7 +7568,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -10059,8 +10053,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:A53"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -10096,815 +10090,815 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>1380</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>1398</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="B3" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="B4" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="B5" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>1414</v>
       </c>
-      <c r="B6" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>1417</v>
-      </c>
       <c r="D6" s="28" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F6" t="s">
         <v>1415</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="B7" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="B8" t="s">
         <v>488</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="B9" t="s">
         <v>489</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="B10" t="s">
         <v>491</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="B11" t="s">
         <v>492</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="B12" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="F12" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="B13" t="s">
         <v>433</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="B14" t="s">
         <v>499</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="B15" t="s">
         <v>501</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="B16" t="s">
         <v>503</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="B17" t="s">
         <v>504</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="B18" t="s">
         <v>508</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="B19" t="s">
         <v>509</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="B20" t="s">
         <v>516</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="B21" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22" s="3" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="B22" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="B23" t="s">
         <v>524</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="B24" t="s">
         <v>525</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="B25" t="s">
         <v>526</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="B26" t="s">
         <v>527</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="B27" t="s">
         <v>528</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="B28" t="s">
         <v>529</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="B29" t="s">
         <v>536</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A30" s="3" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="B30" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B31" t="s">
         <v>545</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="B32" t="s">
         <v>547</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="B33" t="s">
         <v>549</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="B34" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D37" s="28" t="s">
         <v>1515</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>1518</v>
-      </c>
       <c r="E37" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A39" s="3" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A41" s="3" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="C41" s="28" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>1536</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>1537</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A42" s="3" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>1541</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>1542</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A43" s="3" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A45" s="3" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A46" s="3" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
     </row>
   </sheetData>
@@ -10976,9 +10970,10 @@
     <hyperlink ref="D44" r:id="rId64" display="https://books.googleusercontent.com/books/content?req=AKW5QacMsPlzkhSCOohiXYeGljWguMgUQZpwSe9jD-AwX2dY7j4q8PfiYB4m-J-mvsYJpatZ3-Jt4fsCZCAr6gcAHgo8XQBnTUMNt41l5rsg236daxIa9HqNBkAEk1oCCB_F_p0JSetKf7xs-kEVhTq-Qbn_wXgRDnmYyENLKcPb6eOAGx0Bl8OXNIKKcW3JtNG2tTvp5CGcdn6GZGCaZWldzk6J7MFZVTFAIRyRQU9JVsHd9EG09heBzto7hdDbfN9ero7r8UITPVO7i1XxfoE6k1EHShuXtPleOELjtFzm9VrzH7cn7fY" xr:uid="{90E85313-5E40-414D-9C42-229BB197B0DE}"/>
     <hyperlink ref="C46" r:id="rId65" xr:uid="{F2BAF4A6-985D-44AC-9ECB-2096E65D0F5C}"/>
     <hyperlink ref="D46" r:id="rId66" xr:uid="{E6F296C4-41E7-4352-9AA6-816879210698}"/>
+    <hyperlink ref="D41" r:id="rId67" xr:uid="{D0752B48-FE78-4894-B354-C5D73DF9CA15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId67"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId68"/>
 </worksheet>
 </file>
 
@@ -11054,13 +11049,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>482</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>558</v>
@@ -11082,10 +11077,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>99</v>
@@ -11093,10 +11088,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>698</v>
@@ -11104,13 +11099,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>483</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>559</v>
@@ -11138,10 +11133,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>99</v>
@@ -11149,10 +11144,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>699</v>
@@ -11160,13 +11155,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>484</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>560</v>
@@ -11192,10 +11187,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>99</v>
@@ -11203,10 +11198,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>700</v>
@@ -11214,13 +11209,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>485</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>561</v>
@@ -11246,10 +11241,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>99</v>
@@ -11257,10 +11252,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>700</v>
@@ -11268,13 +11263,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>486</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>562</v>
@@ -11300,10 +11295,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>99</v>
@@ -11311,10 +11306,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>701</v>
@@ -11322,13 +11317,13 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>487</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>563</v>
@@ -11354,10 +11349,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>99</v>
@@ -11365,10 +11360,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>702</v>
@@ -11376,13 +11371,13 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>488</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>564</v>
@@ -11408,10 +11403,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>99</v>
@@ -11419,10 +11414,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>700</v>
@@ -11430,13 +11425,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>489</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>565</v>
@@ -11462,10 +11457,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>99</v>
@@ -11473,10 +11468,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>702</v>
@@ -11484,13 +11479,13 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>490</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>566</v>
@@ -11508,7 +11503,7 @@
         <v>2</v>
       </c>
       <c r="K26" s="23" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>208</v>
@@ -11518,10 +11513,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>99</v>
@@ -11529,10 +11524,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>703</v>
@@ -11540,13 +11535,13 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>491</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>567</v>
@@ -11572,10 +11567,10 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>99</v>
@@ -11583,10 +11578,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>700</v>
@@ -11594,13 +11589,13 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>492</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>568</v>
@@ -11626,10 +11621,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>99</v>
@@ -11637,10 +11632,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>704</v>
@@ -11648,13 +11643,13 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>493</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>569</v>
@@ -11680,10 +11675,10 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>99</v>
@@ -11691,10 +11686,10 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>705</v>
@@ -11702,13 +11697,13 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>494</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>570</v>
@@ -11734,10 +11729,10 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>99</v>
@@ -11745,10 +11740,10 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>705</v>
@@ -11756,13 +11751,13 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>495</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>571</v>
@@ -11788,10 +11783,10 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>99</v>
@@ -11799,10 +11794,10 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>705</v>
@@ -11810,13 +11805,13 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>496</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>572</v>
@@ -11842,10 +11837,10 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>99</v>
@@ -11853,10 +11848,10 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>706</v>
@@ -11864,13 +11859,13 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>497</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>573</v>
@@ -11896,10 +11891,10 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>99</v>
@@ -11907,10 +11902,10 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>702</v>
@@ -11918,13 +11913,13 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>498</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>574</v>
@@ -11950,10 +11945,10 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>99</v>
@@ -11961,10 +11956,10 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>702</v>
@@ -11972,13 +11967,13 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>433</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>575</v>
@@ -12004,10 +11999,10 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>99</v>
@@ -12015,10 +12010,10 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>705</v>
@@ -12026,13 +12021,13 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>499</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>576</v>
@@ -12058,10 +12053,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>99</v>
@@ -12069,10 +12064,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>705</v>
@@ -12080,13 +12075,13 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>500</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>577</v>
@@ -12112,10 +12107,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>99</v>
@@ -12123,10 +12118,10 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>705</v>
@@ -12134,13 +12129,13 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>501</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>578</v>
@@ -12166,10 +12161,10 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>99</v>
@@ -12177,10 +12172,10 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>701</v>
@@ -12188,13 +12183,13 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>502</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>579</v>
@@ -12220,10 +12215,10 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>99</v>
@@ -12231,10 +12226,10 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>706</v>
@@ -12242,13 +12237,13 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>503</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>580</v>
@@ -12274,10 +12269,10 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>99</v>
@@ -12285,10 +12280,10 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>704</v>
@@ -12296,13 +12291,13 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>504</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>581</v>
@@ -12328,10 +12323,10 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>99</v>
@@ -12339,10 +12334,10 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>704</v>
@@ -12350,13 +12345,13 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>505</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>582</v>
@@ -12382,10 +12377,10 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>99</v>
@@ -12393,10 +12388,10 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>707</v>
@@ -12404,13 +12399,13 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>506</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>583</v>
@@ -12436,10 +12431,10 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>99</v>
@@ -12447,10 +12442,10 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>707</v>
@@ -12458,13 +12453,13 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>507</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>584</v>
@@ -12490,10 +12485,10 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>99</v>
@@ -12501,10 +12496,10 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>700</v>
@@ -12512,13 +12507,13 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>508</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>585</v>
@@ -12544,10 +12539,10 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>99</v>
@@ -12555,10 +12550,10 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>704</v>
@@ -12566,13 +12561,13 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>509</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>586</v>
@@ -12598,10 +12593,10 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>99</v>
@@ -12609,10 +12604,10 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>704</v>
@@ -12620,13 +12615,13 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>510</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>587</v>
@@ -12652,10 +12647,10 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>99</v>
@@ -12663,10 +12658,10 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>705</v>
@@ -12674,13 +12669,13 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>588</v>
@@ -12706,10 +12701,10 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>99</v>
@@ -12717,10 +12712,10 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>705</v>
@@ -12728,13 +12723,13 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>512</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>589</v>
@@ -12760,10 +12755,10 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>99</v>
@@ -12771,10 +12766,10 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>700</v>
@@ -12782,13 +12777,13 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>513</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>590</v>
@@ -12814,10 +12809,10 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>99</v>
@@ -12825,10 +12820,10 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>700</v>
@@ -12836,13 +12831,13 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>514</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>591</v>
@@ -12868,10 +12863,10 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>99</v>
@@ -12879,10 +12874,10 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>700</v>
@@ -12890,13 +12885,13 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B104" s="10" t="s">
         <v>515</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>592</v>
@@ -12922,10 +12917,10 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>99</v>
@@ -12933,10 +12928,10 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>707</v>
@@ -12944,13 +12939,13 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>516</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>593</v>
@@ -12974,10 +12969,10 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>99</v>
@@ -12985,10 +12980,10 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>702</v>
@@ -12996,13 +12991,13 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>517</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>594</v>
@@ -13026,10 +13021,10 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>99</v>
@@ -13037,10 +13032,10 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>700</v>
@@ -13048,13 +13043,13 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A113" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>518</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>595</v>
@@ -13080,10 +13075,10 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>99</v>
@@ -13091,10 +13086,10 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>706</v>
@@ -13102,13 +13097,13 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B116" s="10" t="s">
         <v>519</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>596</v>
@@ -13134,10 +13129,10 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>99</v>
@@ -13145,10 +13140,10 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A118" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>706</v>
@@ -13156,13 +13151,13 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B119" s="10" t="s">
         <v>520</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>597</v>
@@ -13188,10 +13183,10 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A120" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>99</v>
@@ -13199,10 +13194,10 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>701</v>
@@ -13210,13 +13205,13 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A122" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>521</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>598</v>
@@ -13242,10 +13237,10 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A123" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>99</v>
@@ -13253,10 +13248,10 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A124" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>701</v>
@@ -13264,13 +13259,13 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B125" s="10" t="s">
         <v>522</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>599</v>
@@ -13296,10 +13291,10 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A126" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>99</v>
@@ -13307,10 +13302,10 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>700</v>
@@ -13318,13 +13313,13 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A128" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>523</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>600</v>
@@ -13350,10 +13345,10 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A129" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>99</v>
@@ -13361,10 +13356,10 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A130" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>700</v>
@@ -13372,13 +13367,13 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A131" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>524</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>601</v>
@@ -13404,10 +13399,10 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A132" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>99</v>
@@ -13415,10 +13410,10 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A133" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>702</v>
@@ -13426,13 +13421,13 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A134" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>525</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>602</v>
@@ -13458,10 +13453,10 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A135" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>99</v>
@@ -13469,10 +13464,10 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A136" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>702</v>
@@ -13480,13 +13475,13 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A137" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>526</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D137" s="10" t="s">
         <v>603</v>
@@ -13512,10 +13507,10 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A138" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D138" s="10" t="s">
         <v>99</v>
@@ -13523,10 +13518,10 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A139" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>702</v>
@@ -13534,13 +13529,13 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A140" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>527</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>604</v>
@@ -13566,10 +13561,10 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A141" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>99</v>
@@ -13577,10 +13572,10 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A142" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>702</v>
@@ -13588,13 +13583,13 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A143" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B143" s="10" t="s">
         <v>528</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>605</v>
@@ -13620,10 +13615,10 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A144" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>99</v>
@@ -13631,10 +13626,10 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A145" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>701</v>
@@ -13642,13 +13637,13 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A146" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>529</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D146" s="10" t="s">
         <v>606</v>
@@ -13674,10 +13669,10 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A147" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D147" s="10" t="s">
         <v>99</v>
@@ -13685,10 +13680,10 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A148" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>706</v>
@@ -13696,13 +13691,13 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A149" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B149" s="10" t="s">
         <v>529</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D149" s="10" t="s">
         <v>607</v>
@@ -13728,10 +13723,10 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A150" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D150" s="10" t="s">
         <v>99</v>
@@ -13739,10 +13734,10 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A151" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>708</v>
@@ -13750,13 +13745,13 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A152" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>530</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>608</v>
@@ -13782,10 +13777,10 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A153" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>99</v>
@@ -13793,10 +13788,10 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A154" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>700</v>
@@ -13804,13 +13799,13 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A155" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B155" s="10" t="s">
         <v>531</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>609</v>
@@ -13836,10 +13831,10 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A156" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D156" s="10" t="s">
         <v>99</v>
@@ -13847,10 +13842,10 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A157" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>700</v>
@@ -13858,13 +13853,13 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A158" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>532</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>610</v>
@@ -13890,10 +13885,10 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A159" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D159" s="10" t="s">
         <v>99</v>
@@ -13901,10 +13896,10 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A160" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>700</v>
@@ -13912,13 +13907,13 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A161" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B161" s="10" t="s">
         <v>533</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D161" s="10" t="s">
         <v>611</v>
@@ -13944,10 +13939,10 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A162" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>99</v>
@@ -13955,10 +13950,10 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A163" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>703</v>
@@ -13966,13 +13961,13 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A164" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B164" s="10" t="s">
         <v>532</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>612</v>
@@ -13998,10 +13993,10 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A165" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D165" s="10" t="s">
         <v>99</v>
@@ -14009,10 +14004,10 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A166" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>703</v>
@@ -14020,13 +14015,13 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A167" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B167" s="10" t="s">
         <v>534</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>613</v>
@@ -14052,10 +14047,10 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A168" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>99</v>
@@ -14063,10 +14058,10 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A169" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>704</v>
@@ -14074,13 +14069,13 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A170" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B170" s="10" t="s">
         <v>535</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>614</v>
@@ -14106,10 +14101,10 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A171" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>99</v>
@@ -14117,10 +14112,10 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A172" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>703</v>
@@ -14128,13 +14123,13 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A173" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B173" s="10" t="s">
         <v>536</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D173" s="10" t="s">
         <v>615</v>
@@ -14160,10 +14155,10 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A174" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D174" s="10" t="s">
         <v>99</v>
@@ -14171,10 +14166,10 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A175" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>704</v>
@@ -14182,13 +14177,13 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A176" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B176" s="10" t="s">
         <v>537</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D176" s="10" t="s">
         <v>616</v>
@@ -14214,10 +14209,10 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A177" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>99</v>
@@ -14225,10 +14220,10 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A178" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>703</v>
@@ -14236,13 +14231,13 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A179" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B179" s="10" t="s">
         <v>538</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D179" s="10" t="s">
         <v>617</v>
@@ -14268,10 +14263,10 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A180" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D180" s="10" t="s">
         <v>99</v>
@@ -14279,10 +14274,10 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A181" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>709</v>
@@ -14290,13 +14285,13 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A182" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>535</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D182" s="10" t="s">
         <v>618</v>
@@ -14322,10 +14317,10 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A183" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D183" s="10" t="s">
         <v>99</v>
@@ -14333,10 +14328,10 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A184" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>710</v>
@@ -14344,13 +14339,13 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A185" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B185" s="10" t="s">
         <v>539</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D185" s="10" t="s">
         <v>619</v>
@@ -14376,10 +14371,10 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A186" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D186" s="10" t="s">
         <v>99</v>
@@ -14387,10 +14382,10 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A187" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>700</v>
@@ -14398,13 +14393,13 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A188" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B188" s="10" t="s">
         <v>540</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D188" s="10" t="s">
         <v>620</v>
@@ -14430,10 +14425,10 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A189" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D189" s="10" t="s">
         <v>99</v>
@@ -14441,10 +14436,10 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A190" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>700</v>
@@ -14452,13 +14447,13 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A191" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B191" s="10" t="s">
         <v>541</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D191" s="10" t="s">
         <v>621</v>
@@ -14482,10 +14477,10 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A192" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D192" s="10" t="s">
         <v>99</v>
@@ -14493,10 +14488,10 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A193" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>704</v>
@@ -14504,13 +14499,13 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A194" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B194" s="10" t="s">
         <v>542</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D194" s="10" t="s">
         <v>622</v>
@@ -14536,10 +14531,10 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A195" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D195" s="10" t="s">
         <v>99</v>
@@ -14547,10 +14542,10 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A196" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>711</v>
@@ -14558,13 +14553,13 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A197" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B197" s="10" t="s">
         <v>543</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D197" s="10" t="s">
         <v>623</v>
@@ -14590,10 +14585,10 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A198" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D198" s="10" t="s">
         <v>99</v>
@@ -14601,10 +14596,10 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A199" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>700</v>
@@ -14612,13 +14607,13 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A200" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B200" s="10" t="s">
         <v>544</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D200" s="10" t="s">
         <v>624</v>
@@ -14644,10 +14639,10 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A201" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D201" s="10" t="s">
         <v>99</v>
@@ -14655,10 +14650,10 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A202" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>708</v>
@@ -14666,13 +14661,13 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A203" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B203" s="10" t="s">
         <v>545</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D203" s="10" t="s">
         <v>625</v>
@@ -14698,10 +14693,10 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A204" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D204" s="10" t="s">
         <v>99</v>
@@ -14709,10 +14704,10 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A205" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>702</v>
@@ -14720,13 +14715,13 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A206" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B206" s="10" t="s">
         <v>546</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D206" s="10" t="s">
         <v>626</v>
@@ -14752,10 +14747,10 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A207" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D207" s="10" t="s">
         <v>99</v>
@@ -14763,10 +14758,10 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A208" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>712</v>
@@ -14774,13 +14769,13 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A209" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B209" s="10" t="s">
         <v>547</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D209" s="10" t="s">
         <v>627</v>
@@ -14806,10 +14801,10 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A210" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D210" s="10" t="s">
         <v>99</v>
@@ -14817,10 +14812,10 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A211" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>702</v>
@@ -14828,13 +14823,13 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A212" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B212" s="10" t="s">
         <v>548</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D212" s="10" t="s">
         <v>628</v>
@@ -14860,10 +14855,10 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A213" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D213" s="10" t="s">
         <v>99</v>
@@ -14871,10 +14866,10 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A214" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>713</v>
@@ -14882,13 +14877,13 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A215" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B215" s="10" t="s">
         <v>549</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D215" s="10" t="s">
         <v>629</v>
@@ -14914,10 +14909,10 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A216" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D216" s="10" t="s">
         <v>99</v>
@@ -14925,10 +14920,10 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A217" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>704</v>
@@ -14936,13 +14931,13 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A218" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B218" s="10" t="s">
         <v>550</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D218" s="10" t="s">
         <v>630</v>
@@ -14968,10 +14963,10 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A219" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D219" s="10" t="s">
         <v>99</v>
@@ -14979,10 +14974,10 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A220" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>702</v>
@@ -14990,13 +14985,13 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A221" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B221" s="10" t="s">
         <v>551</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D221" s="10" t="s">
         <v>631</v>
@@ -15022,10 +15017,10 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A222" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D222" s="10" t="s">
         <v>99</v>
@@ -15033,10 +15028,10 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A223" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>700</v>
@@ -15044,13 +15039,13 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A224" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B224" s="10" t="s">
         <v>552</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D224" s="10" t="s">
         <v>632</v>
@@ -15076,10 +15071,10 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A225" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D225" s="10" t="s">
         <v>99</v>
@@ -15087,10 +15082,10 @@
     </row>
     <row r="226" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A226" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>703</v>
@@ -15098,13 +15093,13 @@
     </row>
     <row r="227" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A227" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="B227" s="10" t="s">
         <v>553</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D227" s="10" t="s">
         <v>633</v>
@@ -15130,10 +15125,10 @@
     </row>
     <row r="228" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A228" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D228" s="10" t="s">
         <v>99</v>
@@ -15141,10 +15136,10 @@
     </row>
     <row r="229" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A229" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>703</v>
@@ -15152,13 +15147,13 @@
     </row>
     <row r="230" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A230" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B230" s="10" t="s">
         <v>554</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D230" s="10" t="s">
         <v>634</v>
@@ -15184,10 +15179,10 @@
     </row>
     <row r="231" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A231" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D231" s="10" t="s">
         <v>99</v>
@@ -15195,10 +15190,10 @@
     </row>
     <row r="232" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A232" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>703</v>
@@ -15206,13 +15201,13 @@
     </row>
     <row r="233" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A233" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B233" s="10" t="s">
         <v>555</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D233" s="10" t="s">
         <v>635</v>
@@ -15238,10 +15233,10 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A234" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D234" s="10" t="s">
         <v>99</v>
@@ -15249,10 +15244,10 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A235" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>701</v>
@@ -15260,13 +15255,13 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A236" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B236" s="10" t="s">
         <v>556</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D236" s="10" t="s">
         <v>636</v>
@@ -15292,10 +15287,10 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A237" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D237" s="10" t="s">
         <v>99</v>
@@ -15303,10 +15298,10 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A238" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>702</v>
@@ -15314,13 +15309,13 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A239" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B239" s="10" t="s">
         <v>557</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D239" s="10" t="s">
         <v>637</v>
@@ -15346,10 +15341,10 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A240" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D240" s="10" t="s">
         <v>99</v>
@@ -15357,10 +15352,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A241" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>714</v>
@@ -15375,16 +15370,16 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5546E72A-251A-4B24-8DC9-FD92B1DA2A0A}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.8203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.3515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="49.17578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="28.703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.3515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.3515625" style="4" customWidth="1"/>
@@ -15446,7 +15441,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>839</v>
@@ -15482,11 +15477,11 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>98</v>
@@ -15504,13 +15499,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>841</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>99</v>
@@ -15540,11 +15535,11 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>103</v>
@@ -15562,13 +15557,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>99</v>
@@ -15596,13 +15591,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>840</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>119</v>
@@ -15628,11 +15623,11 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>99</v>
@@ -15650,13 +15645,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>842</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>121</v>
@@ -15682,11 +15677,11 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>99</v>
@@ -15704,13 +15699,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>844</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>99</v>
@@ -15738,13 +15733,13 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>845</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>99</v>
@@ -15772,13 +15767,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>99</v>
@@ -15806,13 +15801,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>99</v>
@@ -15840,13 +15835,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>217</v>
@@ -15858,7 +15853,7 @@
         <v>126</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>45</v>
@@ -15874,11 +15869,11 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>99</v>
@@ -15896,13 +15891,13 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>130</v>
@@ -15930,11 +15925,11 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>99</v>
@@ -15952,13 +15947,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>135</v>
@@ -15986,11 +15981,11 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>99</v>
@@ -16008,11 +16003,11 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="11" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>697</v>
@@ -16030,13 +16025,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22" s="3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>146</v>
@@ -16066,11 +16061,11 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>99</v>
@@ -16088,13 +16083,13 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>99</v>
@@ -16122,13 +16117,13 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>99</v>
@@ -16156,13 +16151,13 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>99</v>
@@ -16190,13 +16185,13 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>176</v>
@@ -16208,7 +16203,7 @@
         <v>151</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>52</v>
@@ -16224,11 +16219,11 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="11" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>99</v>
@@ -16246,13 +16241,13 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>161</v>
@@ -16280,11 +16275,11 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A30" s="3" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>99</v>
@@ -16302,13 +16297,13 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>163</v>
@@ -16336,11 +16331,11 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>99</v>
@@ -16358,13 +16353,13 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>164</v>
@@ -16392,11 +16387,11 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>99</v>
@@ -16414,13 +16409,13 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>188</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>189</v>
@@ -16446,11 +16441,11 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>99</v>
@@ -16468,13 +16463,13 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>190</v>
@@ -16502,11 +16497,11 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A38" s="3" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>99</v>
@@ -16524,13 +16519,13 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A39" s="3" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>843</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>99</v>
@@ -16558,13 +16553,13 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>99</v>
@@ -16592,13 +16587,13 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A41" s="3" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>174</v>
@@ -16626,11 +16621,11 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A42" s="3" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>142</v>
@@ -16648,11 +16643,11 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A43" s="3" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>99</v>
@@ -16670,13 +16665,13 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>846</v>
+        <v>29</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>99</v>
@@ -16704,13 +16699,13 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A45" s="3" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>150</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>141</v>
@@ -16736,11 +16731,11 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A46" s="3" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>99</v>
@@ -16758,13 +16753,13 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A47" s="3" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>99</v>
@@ -16792,13 +16787,13 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A48" s="3" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>99</v>
@@ -16826,13 +16821,13 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A49" s="3" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>142</v>
@@ -16860,11 +16855,11 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A50" s="3" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>99</v>
@@ -16882,13 +16877,13 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A51" s="3" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>99</v>
@@ -16916,13 +16911,13 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A52" s="3" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>99</v>
@@ -16950,13 +16945,13 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A53" s="3" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>99</v>
@@ -16984,13 +16979,13 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A54" s="3" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>99</v>
@@ -17018,13 +17013,13 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A55" s="3" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>847</v>
+        <v>33</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>144</v>
@@ -17052,11 +17047,11 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A56" s="3" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>99</v>
@@ -17074,13 +17069,13 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A57" s="3" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>99</v>
@@ -17108,13 +17103,13 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A58" s="3" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>193</v>
@@ -17142,11 +17137,11 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A59" s="3" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>99</v>
@@ -17164,7 +17159,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A60" s="3" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="11" t="s">
@@ -17186,13 +17181,13 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A61" s="3" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>168</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>99</v>
@@ -17218,13 +17213,13 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A62" s="3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>848</v>
+        <v>169</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>184</v>
@@ -17254,11 +17249,11 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A63" s="3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="11" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>99</v>
@@ -17276,19 +17271,19 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A64" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>173</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>99</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>172</v>
@@ -17307,6 +17302,17 @@
       </c>
       <c r="M64" s="11"/>
       <c r="N64" s="11"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A65" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>878</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -17377,19 +17383,19 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B2" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C2" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D2" t="s">
         <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="G2" t="s">
         <v>124</v>
@@ -17406,10 +17412,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C3" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D3" t="s">
         <v>121</v>
@@ -17417,13 +17423,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B4" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="C4" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D4" t="s">
         <v>99</v>
@@ -17446,19 +17452,19 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B5" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C5" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D5" t="s">
         <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="G5" t="s">
         <v>124</v>
@@ -17478,19 +17484,19 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B6" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C6" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D6" t="s">
         <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="G6" t="s">
         <v>124</v>
@@ -17507,19 +17513,19 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B7" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C7" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D7" t="s">
         <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="G7" t="s">
         <v>181</v>
@@ -17539,10 +17545,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="C8" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D8" t="s">
         <v>99</v>
@@ -17550,19 +17556,19 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B9" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C9" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D9" t="s">
         <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="G9" t="s">
         <v>124</v>
@@ -17579,19 +17585,19 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B10" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C10" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D10" t="s">
         <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="G10" t="s">
         <v>124</v>
@@ -17611,13 +17617,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C11" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D11" t="s">
         <v>99</v>
@@ -17640,19 +17646,19 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="B12" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C12" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D12" t="s">
         <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="G12" t="s">
         <v>124</v>
@@ -17672,19 +17678,19 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B13" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C13" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D13" t="s">
         <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="G13" t="s">
         <v>124</v>
@@ -17707,19 +17713,19 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B14" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C14" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D14" t="s">
         <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="G14" t="s">
         <v>124</v>
@@ -17736,19 +17742,19 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B15" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C15" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D15" t="s">
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="G15" t="s">
         <v>124</v>
@@ -17765,19 +17771,19 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B16" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C16" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D16" t="s">
         <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="G16" t="s">
         <v>124</v>
@@ -17794,19 +17800,19 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B17" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C17" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D17" t="s">
         <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="G17" t="s">
         <v>124</v>
@@ -17829,13 +17835,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B18" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C18" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D18" t="s">
         <v>99</v>
@@ -17858,13 +17864,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B19" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C19" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D19" t="s">
         <v>99</v>
@@ -17881,13 +17887,13 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B20" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="C20" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D20" t="s">
         <v>99</v>
@@ -17904,13 +17910,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B21" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="C21" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D21" t="s">
         <v>99</v>
@@ -17930,13 +17936,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B22" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C22" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D22" t="s">
         <v>99</v>
@@ -17953,13 +17959,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B23" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C23" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D23" t="s">
         <v>99</v>
@@ -17979,13 +17985,13 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B24" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C24" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D24" t="s">
         <v>99</v>
@@ -18002,13 +18008,13 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B25" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="C25" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D25" t="s">
         <v>99</v>
@@ -18025,13 +18031,13 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B26" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="C26" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D26" t="s">
         <v>99</v>
@@ -18051,13 +18057,13 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B27" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="C27" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D27" t="s">
         <v>99</v>
@@ -18083,13 +18089,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B28" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C28" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D28" t="s">
         <v>99</v>
@@ -18112,13 +18118,13 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B29" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C29" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D29" t="s">
         <v>99</v>
@@ -18135,13 +18141,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B30" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C30" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D30" t="s">
         <v>99</v>
@@ -18161,13 +18167,13 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B31" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C31" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D31" t="s">
         <v>99</v>
@@ -18187,19 +18193,19 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B32" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C32" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D32" t="s">
         <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="G32" t="s">
         <v>124</v>
@@ -18216,19 +18222,19 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B33" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C33" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D33" t="s">
         <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="G33" t="s">
         <v>124</v>
@@ -18245,19 +18251,19 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B34" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C34" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D34" t="s">
         <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="G34" t="s">
         <v>124</v>
@@ -18277,19 +18283,19 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B35" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="C35" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D35" t="s">
         <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="G35" t="s">
         <v>124</v>
@@ -18309,13 +18315,13 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="B36" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C36" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D36" t="s">
         <v>99</v>
@@ -18332,13 +18338,13 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B37" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C37" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D37" t="s">
         <v>99</v>
@@ -18358,13 +18364,13 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B38" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C38" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D38" t="s">
         <v>99</v>
@@ -18384,13 +18390,13 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B39" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C39" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D39" t="s">
         <v>99</v>
@@ -18410,13 +18416,13 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B40" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C40" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D40" t="s">
         <v>99</v>
@@ -18436,19 +18442,19 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B41" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C41" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D41" t="s">
         <v>99</v>
       </c>
       <c r="E41" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="G41" t="s">
         <v>124</v>
@@ -18468,19 +18474,19 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B42" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C42" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D42" t="s">
         <v>99</v>
       </c>
       <c r="E42" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="G42" t="s">
         <v>124</v>
@@ -18497,13 +18503,13 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B43" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C43" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D43" t="s">
         <v>99</v>
@@ -18520,13 +18526,13 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B44" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C44" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D44" t="s">
         <v>99</v>
@@ -18543,13 +18549,13 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B45" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C45" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D45" t="s">
         <v>99</v>
@@ -18569,13 +18575,13 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B46" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C46" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D46" t="s">
         <v>99</v>
@@ -18592,19 +18598,19 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B47" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="C47" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D47" t="s">
         <v>99</v>
       </c>
       <c r="E47" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="G47" t="s">
         <v>124</v>
@@ -18624,19 +18630,19 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B48" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="C48" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D48" t="s">
         <v>99</v>
       </c>
       <c r="E48" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="G48" t="s">
         <v>124</v>
@@ -18653,19 +18659,19 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B49" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C49" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D49" t="s">
         <v>99</v>
       </c>
       <c r="E49" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="G49" t="s">
         <v>124</v>
@@ -18685,19 +18691,19 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B50" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="C50" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D50" t="s">
         <v>99</v>
       </c>
       <c r="E50" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="G50" t="s">
         <v>124</v>
@@ -18714,19 +18720,19 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="B51" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="C51" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D51" t="s">
         <v>99</v>
       </c>
       <c r="E51" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="G51" t="s">
         <v>124</v>
@@ -18746,19 +18752,19 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B52" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="C52" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D52" t="s">
         <v>99</v>
       </c>
       <c r="E52" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="G52" t="s">
         <v>124</v>
@@ -18775,13 +18781,13 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="B53" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="C53" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D53" t="s">
         <v>99</v>
@@ -18798,13 +18804,13 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="B54" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="C54" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D54" t="s">
         <v>99</v>
@@ -18824,13 +18830,13 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B55" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="C55" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D55" t="s">
         <v>99</v>
@@ -18850,13 +18856,13 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="B56" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C56" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D56" t="s">
         <v>99</v>
@@ -18876,13 +18882,13 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B57" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C57" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D57" t="s">
         <v>99</v>
@@ -18902,13 +18908,13 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B58" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C58" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D58" t="s">
         <v>99</v>
@@ -18928,13 +18934,13 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B59" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C59" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D59" t="s">
         <v>99</v>
@@ -18954,19 +18960,19 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B60" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C60" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D60" t="s">
         <v>99</v>
       </c>
       <c r="E60" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="G60" t="s">
         <v>124</v>
@@ -18983,19 +18989,19 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="B61" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="C61" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D61" t="s">
         <v>99</v>
       </c>
       <c r="E61" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="G61" t="s">
         <v>124</v>
@@ -19015,19 +19021,19 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B62" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="C62" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D62" t="s">
         <v>99</v>
       </c>
       <c r="E62" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="G62" t="s">
         <v>124</v>
@@ -19047,13 +19053,13 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B63" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="C63" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D63" t="s">
         <v>99</v>
@@ -19073,19 +19079,19 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B64" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="C64" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D64" t="s">
         <v>99</v>
       </c>
       <c r="E64" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="G64" t="s">
         <v>124</v>
@@ -19105,10 +19111,10 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C65" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D65" t="s">
         <v>143</v>
@@ -19116,19 +19122,19 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="B66" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C66" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D66" t="s">
         <v>99</v>
       </c>
       <c r="E66" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="G66" t="s">
         <v>124</v>
@@ -19148,19 +19154,19 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B67" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="C67" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D67" t="s">
         <v>99</v>
       </c>
       <c r="E67" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="G67" t="s">
         <v>124</v>
@@ -19177,13 +19183,13 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="B68" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C68" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D68" t="s">
         <v>99</v>
@@ -19209,13 +19215,13 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="B69" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="C69" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D69" t="s">
         <v>99</v>
@@ -19238,13 +19244,13 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="B70" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C70" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D70" t="s">
         <v>99</v>
@@ -19261,13 +19267,13 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B71" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C71" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D71" t="s">
         <v>99</v>
@@ -19287,13 +19293,13 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B72" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="C72" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D72" t="s">
         <v>99</v>
@@ -19310,19 +19316,19 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B73" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C73" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D73" t="s">
         <v>99</v>
       </c>
       <c r="E73" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="G73" t="s">
         <v>124</v>
@@ -19345,19 +19351,19 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="B74" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C74" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D74" t="s">
         <v>99</v>
       </c>
       <c r="E74" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="G74" t="s">
         <v>124</v>
@@ -19374,13 +19380,13 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B75" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C75" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D75" t="s">
         <v>99</v>
@@ -19403,19 +19409,19 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="B76" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C76" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D76" t="s">
         <v>99</v>
       </c>
       <c r="E76" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="G76" t="s">
         <v>124</v>
@@ -19438,19 +19444,19 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B77" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C77" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D77" t="s">
         <v>99</v>
       </c>
       <c r="E77" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="G77" t="s">
         <v>124</v>
@@ -19470,19 +19476,19 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B78" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C78" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D78" t="s">
         <v>99</v>
       </c>
       <c r="E78" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="G78" t="s">
         <v>124</v>
@@ -19499,13 +19505,13 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B79" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="C79" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D79" t="s">
         <v>99</v>
@@ -19531,19 +19537,19 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="B80" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C80" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D80" t="s">
         <v>99</v>
       </c>
       <c r="E80" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="G80" t="s">
         <v>124</v>
@@ -19560,19 +19566,19 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B81" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C81" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D81" t="s">
         <v>99</v>
       </c>
       <c r="E81" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="G81" t="s">
         <v>124</v>
@@ -19589,19 +19595,19 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B82" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C82" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D82" t="s">
         <v>99</v>
       </c>
       <c r="E82" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="G82" t="s">
         <v>124</v>
@@ -19621,13 +19627,13 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B83" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C83" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D83" t="s">
         <v>99</v>
@@ -19650,19 +19656,19 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B84" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C84" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D84" t="s">
         <v>99</v>
       </c>
       <c r="E84" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="G84" t="s">
         <v>124</v>
@@ -19682,19 +19688,19 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="B85" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C85" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D85" t="s">
         <v>99</v>
       </c>
       <c r="E85" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="G85" t="s">
         <v>124</v>
@@ -19714,19 +19720,19 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="B86" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C86" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D86" t="s">
         <v>99</v>
       </c>
       <c r="E86" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="G86" t="s">
         <v>124</v>
@@ -19743,19 +19749,19 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="B87" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C87" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D87" t="s">
         <v>99</v>
       </c>
       <c r="E87" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="G87" t="s">
         <v>124</v>
@@ -19778,19 +19784,19 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="B88" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C88" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D88" t="s">
         <v>99</v>
       </c>
       <c r="E88" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="G88" t="s">
         <v>124</v>
@@ -19810,19 +19816,19 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="B89" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C89" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D89" t="s">
         <v>99</v>
       </c>
       <c r="E89" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="G89" t="s">
         <v>124</v>
@@ -19842,13 +19848,13 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="B90" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C90" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D90" t="s">
         <v>99</v>
@@ -19865,13 +19871,13 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="B91" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C91" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D91" t="s">
         <v>99</v>
@@ -19888,19 +19894,19 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="B92" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="C92" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D92" t="s">
         <v>99</v>
       </c>
       <c r="E92" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="G92" t="s">
         <v>182</v>
@@ -19920,10 +19926,10 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C93" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D93" t="s">
         <v>142</v>
@@ -19931,10 +19937,10 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C94" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D94" t="s">
         <v>174</v>
@@ -19942,19 +19948,19 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="B95" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C95" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D95" t="s">
         <v>99</v>
       </c>
       <c r="E95" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="G95" t="s">
         <v>124</v>
@@ -19971,13 +19977,13 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="B96" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C96" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D96" t="s">
         <v>99</v>
@@ -20003,19 +20009,19 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B97" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C97" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D97" t="s">
         <v>99</v>
       </c>
       <c r="E97" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="G97" t="s">
         <v>124</v>
@@ -20032,19 +20038,19 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="B98" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C98" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D98" t="s">
         <v>99</v>
       </c>
       <c r="E98" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="G98" t="s">
         <v>124</v>
@@ -20067,10 +20073,10 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C99" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D99" t="s">
         <v>142</v>
@@ -20078,19 +20084,19 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B100" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C100" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D100" t="s">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="G100" t="s">
         <v>124</v>
@@ -20107,13 +20113,13 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="B101" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C101" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D101" t="s">
         <v>99</v>
@@ -20130,19 +20136,19 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="B102" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C102" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D102" t="s">
         <v>99</v>
       </c>
       <c r="E102" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="G102" t="s">
         <v>124</v>
@@ -20165,13 +20171,13 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="B103" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="C103" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D103" t="s">
         <v>99</v>
@@ -20191,13 +20197,13 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="B104" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C104" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D104" t="s">
         <v>99</v>
@@ -20214,13 +20220,13 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="B105" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C105" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D105" t="s">
         <v>99</v>
@@ -20237,13 +20243,13 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="B106" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="C106" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D106" t="s">
         <v>99</v>
@@ -20266,13 +20272,13 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="B107" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C107" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D107" t="s">
         <v>99</v>
@@ -20295,13 +20301,13 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="B108" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="C108" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D108" t="s">
         <v>99</v>
@@ -20324,13 +20330,13 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="B109" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="C109" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D109" t="s">
         <v>99</v>
@@ -20356,13 +20362,13 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="B110" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C110" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D110" t="s">
         <v>99</v>
@@ -20379,13 +20385,13 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="B111" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="C111" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D111" t="s">
         <v>99</v>
@@ -20402,19 +20408,19 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="B112" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="C112" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D112" t="s">
         <v>99</v>
       </c>
       <c r="E112" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="G112" t="s">
         <v>124</v>
@@ -20434,13 +20440,13 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A113" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="B113" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C113" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D113" t="s">
         <v>99</v>
@@ -20463,13 +20469,13 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="B114" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C114" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D114" t="s">
         <v>99</v>
@@ -20495,13 +20501,13 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="B115" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="C115" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D115" t="s">
         <v>99</v>
@@ -20518,13 +20524,13 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="B116" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C116" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D116" t="s">
         <v>99</v>
@@ -20550,19 +20556,19 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="B117" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C117" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D117" t="s">
         <v>99</v>
       </c>
       <c r="E117" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="G117" t="s">
         <v>124</v>
@@ -20579,13 +20585,13 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A118" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="B118" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="C118" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D118" t="s">
         <v>99</v>
@@ -20611,13 +20617,13 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B119" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C119" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D119" t="s">
         <v>99</v>
@@ -20637,19 +20643,19 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A120" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="B120" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="C120" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D120" t="s">
         <v>99</v>
       </c>
       <c r="E120" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="G120" t="s">
         <v>124</v>
@@ -20666,19 +20672,19 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="B121" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="C121" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D121" t="s">
         <v>99</v>
       </c>
       <c r="E121" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="G121" t="s">
         <v>124</v>
@@ -20698,13 +20704,13 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A122" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="B122" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="C122" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D122" t="s">
         <v>99</v>
@@ -20727,19 +20733,19 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A123" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="B123" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C123" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D123" t="s">
         <v>99</v>
       </c>
       <c r="E123" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="G123" t="s">
         <v>124</v>
@@ -20759,13 +20765,13 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A124" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="B124" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C124" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D124" t="s">
         <v>99</v>
@@ -20785,13 +20791,13 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="B125" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C125" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D125" t="s">
         <v>99</v>
@@ -20814,19 +20820,19 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A126" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="B126" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C126" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D126" t="s">
         <v>99</v>
       </c>
       <c r="E126" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="G126" t="s">
         <v>124</v>
@@ -20846,13 +20852,13 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="B127" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C127" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D127" t="s">
         <v>99</v>
@@ -20875,19 +20881,19 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A128" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="B128" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C128" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D128" t="s">
         <v>99</v>
       </c>
       <c r="E128" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="G128" t="s">
         <v>124</v>
@@ -20907,13 +20913,13 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A129" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="B129" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C129" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D129" t="s">
         <v>99</v>
@@ -20933,13 +20939,13 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A130" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="B130" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C130" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D130" t="s">
         <v>99</v>
@@ -20962,13 +20968,13 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A131" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="B131" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="C131" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D131" t="s">
         <v>99</v>
@@ -20991,19 +20997,19 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A132" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="B132" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C132" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D132" t="s">
         <v>99</v>
       </c>
       <c r="E132" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="G132" t="s">
         <v>124</v>
@@ -21023,13 +21029,13 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A133" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="B133" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="C133" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D133" t="s">
         <v>99</v>
@@ -21046,13 +21052,13 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A134" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="B134" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C134" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D134" t="s">
         <v>99</v>
@@ -21075,19 +21081,19 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A135" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="B135" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C135" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D135" t="s">
         <v>99</v>
       </c>
       <c r="E135" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="G135" t="s">
         <v>124</v>
@@ -21104,13 +21110,13 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A136" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="B136" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C136" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D136" t="s">
         <v>99</v>
@@ -21133,19 +21139,19 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A137" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="B137" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C137" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D137" t="s">
         <v>99</v>
       </c>
       <c r="E137" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="G137" t="s">
         <v>124</v>
@@ -21162,19 +21168,19 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A138" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="B138" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C138" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D138" t="s">
         <v>99</v>
       </c>
       <c r="E138" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="G138" t="s">
         <v>124</v>
@@ -21194,13 +21200,13 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A139" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="B139" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C139" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D139" t="s">
         <v>99</v>
@@ -21223,19 +21229,19 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A140" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="B140" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C140" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D140" t="s">
         <v>99</v>
       </c>
       <c r="E140" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="G140" t="s">
         <v>124</v>
@@ -21249,13 +21255,13 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A141" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="B141" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C141" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D141" t="s">
         <v>99</v>
@@ -21278,13 +21284,13 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A142" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="B142" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="C142" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D142" t="s">
         <v>99</v>
@@ -21301,13 +21307,13 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A143" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="B143" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C143" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D143" t="s">
         <v>99</v>
@@ -21330,13 +21336,13 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A144" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="B144" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C144" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D144" t="s">
         <v>99</v>
@@ -21362,19 +21368,19 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A145" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B145" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C145" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D145" t="s">
         <v>99</v>
       </c>
       <c r="E145" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="G145" t="s">
         <v>124</v>
@@ -21391,13 +21397,13 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A146" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="B146" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="C146" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D146" t="s">
         <v>99</v>
@@ -21414,13 +21420,13 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A147" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="B147" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C147" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="D147" t="s">
         <v>99</v>
@@ -21443,10 +21449,10 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A148" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="C148" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D148" t="s">
         <v>140</v>
@@ -21454,19 +21460,19 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A149" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="B149" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C149" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D149" t="s">
         <v>99</v>
       </c>
       <c r="E149" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="G149" t="s">
         <v>124</v>
@@ -21483,13 +21489,13 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A150" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="B150" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="C150" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D150" t="s">
         <v>99</v>
@@ -21512,19 +21518,19 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A151" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="B151" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C151" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D151" t="s">
         <v>99</v>
       </c>
       <c r="E151" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="G151" t="s">
         <v>124</v>
@@ -21541,13 +21547,13 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A152" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="B152" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C152" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D152" t="s">
         <v>99</v>
@@ -21567,19 +21573,19 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A153" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="B153" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C153" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D153" t="s">
         <v>99</v>
       </c>
       <c r="E153" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="G153" t="s">
         <v>124</v>
@@ -21599,13 +21605,13 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A154" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="B154" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C154" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D154" t="s">
         <v>121</v>
@@ -21616,19 +21622,19 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A155" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="B155" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C155" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D155" t="s">
         <v>99</v>
       </c>
       <c r="E155" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="G155" t="s">
         <v>124</v>
@@ -21645,13 +21651,13 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A156" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="B156" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C156" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D156" t="s">
         <v>99</v>
@@ -21674,10 +21680,10 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A157" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C157" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D157" t="s">
         <v>647</v>
@@ -21685,10 +21691,10 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A158" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C158" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D158" t="s">
         <v>99</v>
@@ -21696,10 +21702,10 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A159" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C159" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D159" t="s">
         <v>193</v>
@@ -21707,19 +21713,19 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A160" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B160" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="C160" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D160" t="s">
         <v>99</v>
       </c>
       <c r="E160" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="G160" t="s">
         <v>124</v>
@@ -21736,13 +21742,13 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A161" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="B161" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="C161" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D161" t="s">
         <v>99</v>
@@ -21768,13 +21774,13 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A162" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="B162" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="C162" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D162" t="s">
         <v>99</v>
@@ -21791,13 +21797,13 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A163" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="B163" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C163" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D163" t="s">
         <v>99</v>
@@ -21817,13 +21823,13 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A164" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="B164" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C164" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D164" t="s">
         <v>99</v>
@@ -21849,13 +21855,13 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A165" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="B165" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C165" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D165" t="s">
         <v>99</v>
@@ -21875,19 +21881,19 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A166" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="B166" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C166" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D166" t="s">
         <v>99</v>
       </c>
       <c r="E166" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="G166" t="s">
         <v>124</v>
@@ -21910,13 +21916,13 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A167" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="B167" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C167" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D167" t="s">
         <v>99</v>
@@ -21933,13 +21939,13 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A168" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="B168" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="C168" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D168" t="s">
         <v>99</v>
@@ -21959,13 +21965,13 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A169" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="B169" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="C169" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D169" t="s">
         <v>99</v>

--- a/public/data/data-duerer.xlsx
+++ b/public/data/data-duerer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\duk\InTaVia2023\data-import\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896869D7-E964-44F0-A644-63B744B7D4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AC9E19-759F-4783-96FE-BDCDB7E44D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" firstSheet="1" activeTab="7" xr2:uid="{C25329CA-05B7-420C-A3AD-7BFC7999E524}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" firstSheet="1" activeTab="4" xr2:uid="{C25329CA-05B7-420C-A3AD-7BFC7999E524}"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="1" r:id="rId1"/>
@@ -7568,8 +7568,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -7805,10 +7805,10 @@
         <v>196</v>
       </c>
       <c r="I12" s="15">
-        <v>50.779970519999999</v>
+        <v>50.775278</v>
       </c>
       <c r="J12" s="15">
-        <v>6.2580803319999996</v>
+        <v>6.0838890000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.5">
@@ -15372,7 +15372,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>

--- a/public/data/data-duerer.xlsx
+++ b/public/data/data-duerer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\duk\InTaVia2023\data-import\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AC9E19-759F-4783-96FE-BDCDB7E44D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7397CC9D-6084-4EBF-ABF2-F67B50FB82FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" firstSheet="1" activeTab="4" xr2:uid="{C25329CA-05B7-420C-A3AD-7BFC7999E524}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" firstSheet="1" activeTab="7" xr2:uid="{C25329CA-05B7-420C-A3AD-7BFC7999E524}"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4119" uniqueCount="1579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4125" uniqueCount="1585">
   <si>
     <t>id</t>
   </si>
@@ -4356,12 +4356,6 @@
     <t>m-023</t>
   </si>
   <si>
-    <t>https://www.bildindex.de/media/large/mi/03/97/6a/mi03976a05.jpg?Expires=1677759882&amp;Signature=hWeVgz5cjlYCBB2LCiBgpEX8KcG3RfTFq0uPL84nDEqrdHhy5ubRwrJVjKuEWzf92X13ypwWFMGToksoUmCw2HPJSF~1JI8zBmob43tSWRXG7P0H5U3DKehqf2tfXUma7o~ZU42ct2Rf9FcwuOsC6EEw2QvAlzU7pO6W7wfrA18_&amp;Key-Pair-Id=APKAJGHHKKX2FHRP63AQ</t>
-  </si>
-  <si>
-    <t>https://www.bildindex.de/document/obj00030696?medium=mi03976a05&amp;part=1</t>
-  </si>
-  <si>
     <t>Ein Goldschmied aus Mecheln</t>
   </si>
   <si>
@@ -4455,15 +4449,9 @@
     <t>Evtl. Burg Rheinfels bei Goslar und Burg Stolzenfels, aus dem Silberstiftskizzenbuch, das während der Reise in die Niederlande entstand</t>
   </si>
   <si>
-    <t>http://www.zeno.org/Kunstwerke/B/D%C3%BCrer,%20Albrecht:%20Zwei%20Burgen</t>
-  </si>
-  <si>
     <t>Two Castles</t>
   </si>
   <si>
-    <t>http://images.zeno.org/Kunstwerke/I/big/2540011a.jpg</t>
-  </si>
-  <si>
     <t>https://sammlung.staedelmuseum.de/en/work/marx-ulstat-the-beautiful-young-woman-of-antwerp</t>
   </si>
   <si>
@@ -4611,9 +4599,6 @@
     <t>https://commons.wikimedia.org/wiki/File:Albrecht-D%C3%BCrer-Haus_i_N%C3%BCrnberg_-_TEK_-_TEKA0115528.tif</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/e/e6/Albrecht-D%C3%BCrer-Haus_i_N%C3%BCrnberg_-_TEK_-_TEKA0115528.tif</t>
-  </si>
-  <si>
     <t>m-038</t>
   </si>
   <si>
@@ -4783,6 +4768,39 @@
   </si>
   <si>
     <t>is gravesite</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>https://id.smb.museum/object/950915</t>
+  </si>
+  <si>
+    <t>http://www.zeno.org/nid/2000399936X</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e6/Albrecht-D%C3%BCrer-Haus_i_N%C3%BCrnberg_-_TEK_-_TEKA0115528.tif/lossy-page1-775px-Albrecht-D%C3%BCrer-Haus_i_N%C3%BCrnberg_-_TEK_-_TEKA0115528.tif.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1PU60_TqWqGJoRRiKm8-sOteLeKhF7vVq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1DI1Ih544jL7rxyUxA_urkV1GCl2LMEN_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1g0sQAaHO8xrO0id89bB5WEoTsmN3C4bw</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1MwHz0Y-xqQ4XhFbmHQF9m4Lh9uaOPLvW</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1kJEGUnYN_fdjPG26fQpJVWzIfQqmXIqt</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1ofODJ9GwqtRlt_Cr4eDdi_IeEAs72j5b</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1c_AeKhXQrgmen6fqNzQ7C41dHJtmICSK</t>
   </si>
 </sst>
 </file>
@@ -4946,8 +4964,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5511,7 +5529,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="10" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5553,7 +5571,7 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>214</v>
@@ -5569,60 +5587,64 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F870BEB-B6B1-493D-AF20-4CA3C7300BD9}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="88" customWidth="1"/>
-    <col min="3" max="3" width="43.17578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88" customWidth="1"/>
+    <col min="4" max="4" width="43.17578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1406</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="229.35" x14ac:dyDescent="0.5">
+      <c r="D1" s="2" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="229.35" x14ac:dyDescent="0.5">
       <c r="A2" s="26" t="s">
         <v>1403</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>1408</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="28" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1405</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="C3" s="29" t="s">
         <v>1409</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="28" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B18" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.5">
+      <c r="C18" t="s">
         <v>1378</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{443A0509-4DC0-4AD2-8598-6ADC36DEC702}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{B8411DE4-2CD3-4DD6-A0C5-B17E929AD716}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{443A0509-4DC0-4AD2-8598-6ADC36DEC702}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{B8411DE4-2CD3-4DD6-A0C5-B17E929AD716}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -5635,7 +5657,7 @@
   <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -5708,7 +5730,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="3" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>186</v>
@@ -5725,10 +5747,10 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>186</v>
@@ -5748,7 +5770,7 @@
         <v>162</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>192</v>
@@ -5768,7 +5790,7 @@
         <v>162</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>192</v>
@@ -5785,10 +5807,10 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>192</v>
@@ -5806,7 +5828,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>187</v>
@@ -5825,10 +5847,10 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>221</v>
@@ -5874,10 +5896,10 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="H12" t="s">
         <v>186</v>
@@ -5928,7 +5950,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>1392</v>
@@ -5948,7 +5970,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>1392</v>
@@ -6001,7 +6023,7 @@
         <v>488</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -6076,7 +6098,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>1423</v>
@@ -6160,7 +6182,7 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>1424</v>
@@ -6180,7 +6202,7 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>1424</v>
@@ -6200,7 +6222,7 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>1425</v>
@@ -6372,7 +6394,7 @@
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>1419</v>
@@ -6540,7 +6562,7 @@
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>1432</v>
@@ -6683,7 +6705,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="3" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>640</v>
@@ -6701,7 +6723,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="3" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>640</v>
@@ -6719,7 +6741,7 @@
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="3" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>638</v>
@@ -6737,7 +6759,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="3" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>638</v>
@@ -6883,7 +6905,7 @@
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
       <c r="G70" s="10" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>641</v>
@@ -6910,7 +6932,7 @@
         <v>617</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -6958,7 +6980,7 @@
         <v>620</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -6980,10 +7002,10 @@
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
       <c r="F76" s="10" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>641</v>
@@ -7000,10 +7022,10 @@
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="10" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="H77" s="8" t="s">
         <v>639</v>
@@ -7053,7 +7075,7 @@
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
       <c r="G80" s="10" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>638</v>
@@ -7086,10 +7108,10 @@
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
       <c r="F82" s="10" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="H82" s="8" t="s">
         <v>638</v>
@@ -7106,7 +7128,7 @@
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="8" t="s">
@@ -7124,10 +7146,10 @@
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="H84" s="8" t="s">
         <v>644</v>
@@ -7568,7 +7590,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -10053,8 +10075,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -10122,7 +10144,7 @@
         <v>1380</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
@@ -10135,7 +10157,9 @@
       <c r="C4" s="28" t="s">
         <v>1402</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="31" t="s">
+        <v>1579</v>
+      </c>
       <c r="E4" s="3" t="s">
         <v>1380</v>
       </c>
@@ -10182,7 +10206,7 @@
         <v>1418</v>
       </c>
       <c r="B7" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>1416</v>
@@ -10194,7 +10218,7 @@
         <v>1380</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
@@ -10205,10 +10229,10 @@
         <v>488</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>1436</v>
+        <v>1575</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>1580</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>1380</v>
@@ -10222,10 +10246,10 @@
         <v>489</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>1380</v>
@@ -10239,10 +10263,10 @@
         <v>491</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>1380</v>
@@ -10256,16 +10280,16 @@
         <v>492</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
@@ -10273,19 +10297,19 @@
         <v>1424</v>
       </c>
       <c r="B12" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="F12" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
@@ -10296,16 +10320,16 @@
         <v>433</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
@@ -10316,16 +10340,16 @@
         <v>499</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
@@ -10336,9 +10360,11 @@
         <v>501</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D15" s="30"/>
+        <v>1455</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>1581</v>
+      </c>
       <c r="E15" s="3" t="s">
         <v>1380</v>
       </c>
@@ -10351,10 +10377,10 @@
         <v>503</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>1380</v>
@@ -10368,10 +10394,10 @@
         <v>504</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>1380</v>
@@ -10385,16 +10411,16 @@
         <v>508</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.5">
@@ -10405,10 +10431,10 @@
         <v>509</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>1380</v>
@@ -10422,10 +10448,10 @@
         <v>516</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>1380</v>
@@ -10436,19 +10462,19 @@
         <v>1432</v>
       </c>
       <c r="B21" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>1469</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>1471</v>
+        <v>1576</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>1582</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.5">
@@ -10456,12 +10482,14 @@
         <v>1433</v>
       </c>
       <c r="B22" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>1472</v>
-      </c>
-      <c r="D22" s="30"/>
+        <v>1468</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>1583</v>
+      </c>
       <c r="E22" s="3" t="s">
         <v>1380</v>
       </c>
@@ -10474,10 +10502,10 @@
         <v>524</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>1380</v>
@@ -10491,10 +10519,10 @@
         <v>525</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>1380</v>
@@ -10502,16 +10530,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B25" t="s">
         <v>526</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>1380</v>
@@ -10519,16 +10547,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B26" t="s">
         <v>527</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>1380</v>
@@ -10536,13 +10564,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B27" t="s">
         <v>528</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>1489</v>
+        <v>1485</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>1584</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>1380</v>
@@ -10550,16 +10581,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B28" t="s">
         <v>529</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>1380</v>
@@ -10567,16 +10598,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="B29" t="s">
         <v>536</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>1380</v>
@@ -10584,36 +10615,36 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A30" s="3" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B30" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="B31" t="s">
         <v>545</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>1497</v>
+        <v>1494</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>1493</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>1380</v>
@@ -10621,53 +10652,56 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="B32" t="s">
         <v>547</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="B33" t="s">
         <v>549</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="B34" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>1503</v>
+        <v>1500</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>1578</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>1380</v>
@@ -10675,36 +10709,36 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>1380</v>
@@ -10712,16 +10746,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>1512</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>1516</v>
-      </c>
       <c r="C37" s="28" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>1380</v>
@@ -10729,36 +10763,36 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>1513</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>1517</v>
-      </c>
       <c r="C38" s="28" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>1519</v>
+        <v>1514</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>1515</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A39" s="3" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>1521</v>
+        <v>1516</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>1577</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>1380</v>
@@ -10766,139 +10800,139 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A41" s="3" t="s">
-        <v>1524</v>
+        <v>1519</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A42" s="3" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A43" s="3" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A45" s="3" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A46" s="3" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
     </row>
   </sheetData>
@@ -10914,66 +10948,73 @@
     <hyperlink ref="D6" r:id="rId8" xr:uid="{7D5EB142-335B-4476-B272-FD9F53933C39}"/>
     <hyperlink ref="C6" r:id="rId9" xr:uid="{CCDBF689-403E-43A8-BED9-3E755171E066}"/>
     <hyperlink ref="C7" r:id="rId10" xr:uid="{64183D9C-D3CF-4202-B5C3-18F54B30105D}"/>
-    <hyperlink ref="D8" r:id="rId11" display="https://www.bildindex.de/media/large/mi/03/97/6a/mi03976a05.jpg?Expires=1677759882&amp;Signature=hWeVgz5cjlYCBB2LCiBgpEX8KcG3RfTFq0uPL84nDEqrdHhy5ubRwrJVjKuEWzf92X13ypwWFMGToksoUmCw2HPJSF~1JI8zBmob43tSWRXG7P0H5U3DKehqf2tfXUma7o~ZU42ct2Rf9FcwuOsC6EEw2QvAlzU7pO6W7wfrA18_&amp;Key-Pair-Id=APKAJGHHKKX2FHRP63AQ" xr:uid="{2BDCDC4C-CAC4-44B7-B28C-83BD8753952C}"/>
-    <hyperlink ref="C8" r:id="rId12" xr:uid="{63355708-FBD7-4D22-AECF-34AD1D7C138F}"/>
-    <hyperlink ref="C9" r:id="rId13" xr:uid="{480D5B27-8454-41B3-A50B-4ACFFDAE4026}"/>
-    <hyperlink ref="D9" r:id="rId14" xr:uid="{1E9B9CA0-D6F1-4AE0-AE43-7776F5BD6EF1}"/>
-    <hyperlink ref="D10" r:id="rId15" xr:uid="{EA214F1E-4812-477F-90AE-31C9F30296F1}"/>
-    <hyperlink ref="C10" r:id="rId16" xr:uid="{9FE6D3D1-53E9-489A-AB96-5EC7DADDD591}"/>
-    <hyperlink ref="D11" r:id="rId17" xr:uid="{B87A9B74-3BD6-4ED9-98AB-34EDAE07337F}"/>
-    <hyperlink ref="C12" r:id="rId18" xr:uid="{5D03CC0B-DEE3-4FDE-9306-CE5E26709C32}"/>
-    <hyperlink ref="C13" r:id="rId19" xr:uid="{FFAAC713-605F-4948-894C-B32F62D6C8E4}"/>
-    <hyperlink ref="D13" r:id="rId20" xr:uid="{A0893C3E-1C28-467D-9AFC-E8EE4AB9FB89}"/>
-    <hyperlink ref="D14" r:id="rId21" xr:uid="{3F64321A-2515-493E-917E-72B791B9408D}"/>
-    <hyperlink ref="C14" r:id="rId22" xr:uid="{0332E7E1-BC6A-47EA-89D6-97A7068AB01F}"/>
-    <hyperlink ref="C15" r:id="rId23" xr:uid="{6EC68279-7666-4082-ADEA-A2C7658064D2}"/>
-    <hyperlink ref="D16" r:id="rId24" xr:uid="{517CD509-8487-4373-A454-B2B9E47FF545}"/>
-    <hyperlink ref="C16" r:id="rId25" xr:uid="{29844E65-FF0E-4D48-82B8-096506F811E6}"/>
-    <hyperlink ref="C17" r:id="rId26" xr:uid="{28A376E3-CC6D-491B-96A1-EB17AA4EFB22}"/>
-    <hyperlink ref="C18" r:id="rId27" xr:uid="{412FF679-225E-44C0-8E9F-CFBE4329EBC3}"/>
-    <hyperlink ref="D18" r:id="rId28" xr:uid="{F8DEBD7A-3831-43DB-A095-2BC3CECE35C2}"/>
-    <hyperlink ref="C19" r:id="rId29" xr:uid="{7C9CB129-6FFC-4285-AC98-069E1A3CCCC6}"/>
-    <hyperlink ref="D19" r:id="rId30" xr:uid="{CE60D295-56DA-4DAD-ABF8-FA73AB5B855E}"/>
-    <hyperlink ref="C20" r:id="rId31" xr:uid="{234F6491-E60B-4B87-A632-870076D9CCA7}"/>
-    <hyperlink ref="C21" r:id="rId32" xr:uid="{61D9836A-7C7E-4867-ABF5-33BB8C69892E}"/>
-    <hyperlink ref="D21" r:id="rId33" xr:uid="{ABE00576-9886-4B0A-A870-5D91CF571100}"/>
-    <hyperlink ref="C22" r:id="rId34" xr:uid="{D4605030-C409-4AF3-8259-809032BBDE3E}"/>
-    <hyperlink ref="C25" r:id="rId35" xr:uid="{080340CC-9D67-448D-91B8-CF5E61F24528}"/>
-    <hyperlink ref="C26" r:id="rId36" xr:uid="{2C13BE1F-6959-4279-B9CC-BE2550EA0D05}"/>
-    <hyperlink ref="C27" r:id="rId37" xr:uid="{161A5A2E-4114-4985-9828-82028E172B03}"/>
-    <hyperlink ref="D28" r:id="rId38" xr:uid="{C7E1F470-0BA6-453D-B307-2A7B184F5CBB}"/>
-    <hyperlink ref="C28" r:id="rId39" xr:uid="{11E684AC-C433-4034-B87F-E540C77A524F}"/>
-    <hyperlink ref="C29" r:id="rId40" xr:uid="{6B023398-4DAE-4F93-81D4-CF7601909568}"/>
-    <hyperlink ref="C30" r:id="rId41" xr:uid="{0C9432DA-F217-44DE-B2FF-70283A13F215}"/>
-    <hyperlink ref="D30" r:id="rId42" xr:uid="{5AFC87AF-12FB-4162-8E98-DF8E161DC898}"/>
-    <hyperlink ref="D31" r:id="rId43" xr:uid="{55865B39-4DCB-4D60-B607-52D2D3ADFF82}"/>
-    <hyperlink ref="C31" r:id="rId44" xr:uid="{B70145B5-B167-4A5B-8D5E-B5EBC65F3C2B}"/>
-    <hyperlink ref="C32" r:id="rId45" xr:uid="{ED6D5FE2-EE49-483E-B19B-37602DF833A2}"/>
-    <hyperlink ref="D7" r:id="rId46" xr:uid="{F5CD6900-3559-4D8F-8717-FF92BEE78CF8}"/>
-    <hyperlink ref="C35" r:id="rId47" xr:uid="{DBA5A372-746C-4C4C-815B-81F869194C86}"/>
-    <hyperlink ref="D35" r:id="rId48" xr:uid="{4D09EA8C-4FA5-43D4-83C6-8F98113BD100}"/>
-    <hyperlink ref="C36" r:id="rId49" xr:uid="{FEDE9C89-95F5-405A-B824-83ACDC1592FF}"/>
-    <hyperlink ref="C37" r:id="rId50" xr:uid="{8E39BE0E-9C8D-4504-94B0-4A6D54597337}"/>
-    <hyperlink ref="D37" r:id="rId51" xr:uid="{4F366ACA-E9DC-4D82-A164-F3C23305A963}"/>
-    <hyperlink ref="C38" r:id="rId52" xr:uid="{1ED5BD43-7A12-48C2-BC69-8F0EBCC5B3A0}"/>
-    <hyperlink ref="D38" r:id="rId53" xr:uid="{F2EA09DA-74A9-46C8-AF66-8E4B1AB4C1B9}"/>
-    <hyperlink ref="C39" r:id="rId54" xr:uid="{049280BA-CFC9-44A0-A076-2331B0E40C26}"/>
-    <hyperlink ref="C40" r:id="rId55" xr:uid="{9C52C1E3-7BD1-4B41-A23E-81A351F47D54}"/>
-    <hyperlink ref="D40" r:id="rId56" xr:uid="{EC6045AC-7661-4396-876E-A185378B4D91}"/>
-    <hyperlink ref="C41" r:id="rId57" xr:uid="{D1BD7645-D58F-40F7-978F-383E3AB8995C}"/>
-    <hyperlink ref="D42" r:id="rId58" xr:uid="{6DA96B2C-01E1-4702-8D73-C6CB924302ED}"/>
-    <hyperlink ref="C42" r:id="rId59" xr:uid="{70FE4ABE-035F-4403-A099-051396E69EF1}"/>
-    <hyperlink ref="C43" r:id="rId60" xr:uid="{A6B885F7-852B-4C3F-896A-81B7A4085B52}"/>
-    <hyperlink ref="D45" r:id="rId61" xr:uid="{2AFA1DCA-150C-4E59-B51B-408C4EE4D9F1}"/>
-    <hyperlink ref="C45" r:id="rId62" xr:uid="{7C291294-21B9-4C11-8570-25513F54FB58}"/>
-    <hyperlink ref="C44" r:id="rId63" xr:uid="{CBEA5E2B-AF57-44B8-A639-1B5A04764DA8}"/>
-    <hyperlink ref="D44" r:id="rId64" display="https://books.googleusercontent.com/books/content?req=AKW5QacMsPlzkhSCOohiXYeGljWguMgUQZpwSe9jD-AwX2dY7j4q8PfiYB4m-J-mvsYJpatZ3-Jt4fsCZCAr6gcAHgo8XQBnTUMNt41l5rsg236daxIa9HqNBkAEk1oCCB_F_p0JSetKf7xs-kEVhTq-Qbn_wXgRDnmYyENLKcPb6eOAGx0Bl8OXNIKKcW3JtNG2tTvp5CGcdn6GZGCaZWldzk6J7MFZVTFAIRyRQU9JVsHd9EG09heBzto7hdDbfN9ero7r8UITPVO7i1XxfoE6k1EHShuXtPleOELjtFzm9VrzH7cn7fY" xr:uid="{90E85313-5E40-414D-9C42-229BB197B0DE}"/>
-    <hyperlink ref="C46" r:id="rId65" xr:uid="{F2BAF4A6-985D-44AC-9ECB-2096E65D0F5C}"/>
-    <hyperlink ref="D46" r:id="rId66" xr:uid="{E6F296C4-41E7-4352-9AA6-816879210698}"/>
-    <hyperlink ref="D41" r:id="rId67" xr:uid="{D0752B48-FE78-4894-B354-C5D73DF9CA15}"/>
+    <hyperlink ref="C8" r:id="rId11" xr:uid="{63355708-FBD7-4D22-AECF-34AD1D7C138F}"/>
+    <hyperlink ref="C9" r:id="rId12" xr:uid="{480D5B27-8454-41B3-A50B-4ACFFDAE4026}"/>
+    <hyperlink ref="D9" r:id="rId13" xr:uid="{1E9B9CA0-D6F1-4AE0-AE43-7776F5BD6EF1}"/>
+    <hyperlink ref="D10" r:id="rId14" xr:uid="{EA214F1E-4812-477F-90AE-31C9F30296F1}"/>
+    <hyperlink ref="C10" r:id="rId15" xr:uid="{9FE6D3D1-53E9-489A-AB96-5EC7DADDD591}"/>
+    <hyperlink ref="D11" r:id="rId16" xr:uid="{B87A9B74-3BD6-4ED9-98AB-34EDAE07337F}"/>
+    <hyperlink ref="C12" r:id="rId17" xr:uid="{5D03CC0B-DEE3-4FDE-9306-CE5E26709C32}"/>
+    <hyperlink ref="C13" r:id="rId18" xr:uid="{FFAAC713-605F-4948-894C-B32F62D6C8E4}"/>
+    <hyperlink ref="D13" r:id="rId19" xr:uid="{A0893C3E-1C28-467D-9AFC-E8EE4AB9FB89}"/>
+    <hyperlink ref="D14" r:id="rId20" xr:uid="{3F64321A-2515-493E-917E-72B791B9408D}"/>
+    <hyperlink ref="C14" r:id="rId21" xr:uid="{0332E7E1-BC6A-47EA-89D6-97A7068AB01F}"/>
+    <hyperlink ref="C15" r:id="rId22" xr:uid="{6EC68279-7666-4082-ADEA-A2C7658064D2}"/>
+    <hyperlink ref="D16" r:id="rId23" xr:uid="{517CD509-8487-4373-A454-B2B9E47FF545}"/>
+    <hyperlink ref="C16" r:id="rId24" xr:uid="{29844E65-FF0E-4D48-82B8-096506F811E6}"/>
+    <hyperlink ref="C17" r:id="rId25" xr:uid="{28A376E3-CC6D-491B-96A1-EB17AA4EFB22}"/>
+    <hyperlink ref="C18" r:id="rId26" xr:uid="{412FF679-225E-44C0-8E9F-CFBE4329EBC3}"/>
+    <hyperlink ref="D18" r:id="rId27" xr:uid="{F8DEBD7A-3831-43DB-A095-2BC3CECE35C2}"/>
+    <hyperlink ref="C19" r:id="rId28" xr:uid="{7C9CB129-6FFC-4285-AC98-069E1A3CCCC6}"/>
+    <hyperlink ref="D19" r:id="rId29" xr:uid="{CE60D295-56DA-4DAD-ABF8-FA73AB5B855E}"/>
+    <hyperlink ref="C20" r:id="rId30" xr:uid="{234F6491-E60B-4B87-A632-870076D9CCA7}"/>
+    <hyperlink ref="C21" r:id="rId31" xr:uid="{61D9836A-7C7E-4867-ABF5-33BB8C69892E}"/>
+    <hyperlink ref="C22" r:id="rId32" xr:uid="{D4605030-C409-4AF3-8259-809032BBDE3E}"/>
+    <hyperlink ref="C25" r:id="rId33" xr:uid="{080340CC-9D67-448D-91B8-CF5E61F24528}"/>
+    <hyperlink ref="C26" r:id="rId34" xr:uid="{2C13BE1F-6959-4279-B9CC-BE2550EA0D05}"/>
+    <hyperlink ref="C27" r:id="rId35" xr:uid="{161A5A2E-4114-4985-9828-82028E172B03}"/>
+    <hyperlink ref="D28" r:id="rId36" xr:uid="{C7E1F470-0BA6-453D-B307-2A7B184F5CBB}"/>
+    <hyperlink ref="C28" r:id="rId37" xr:uid="{11E684AC-C433-4034-B87F-E540C77A524F}"/>
+    <hyperlink ref="C29" r:id="rId38" xr:uid="{6B023398-4DAE-4F93-81D4-CF7601909568}"/>
+    <hyperlink ref="C30" r:id="rId39" xr:uid="{0C9432DA-F217-44DE-B2FF-70283A13F215}"/>
+    <hyperlink ref="D30" r:id="rId40" xr:uid="{5AFC87AF-12FB-4162-8E98-DF8E161DC898}"/>
+    <hyperlink ref="D31" r:id="rId41" xr:uid="{55865B39-4DCB-4D60-B607-52D2D3ADFF82}"/>
+    <hyperlink ref="C31" r:id="rId42" xr:uid="{B70145B5-B167-4A5B-8D5E-B5EBC65F3C2B}"/>
+    <hyperlink ref="C32" r:id="rId43" xr:uid="{ED6D5FE2-EE49-483E-B19B-37602DF833A2}"/>
+    <hyperlink ref="D7" r:id="rId44" xr:uid="{F5CD6900-3559-4D8F-8717-FF92BEE78CF8}"/>
+    <hyperlink ref="C35" r:id="rId45" xr:uid="{DBA5A372-746C-4C4C-815B-81F869194C86}"/>
+    <hyperlink ref="D35" r:id="rId46" xr:uid="{4D09EA8C-4FA5-43D4-83C6-8F98113BD100}"/>
+    <hyperlink ref="C36" r:id="rId47" xr:uid="{FEDE9C89-95F5-405A-B824-83ACDC1592FF}"/>
+    <hyperlink ref="C37" r:id="rId48" xr:uid="{8E39BE0E-9C8D-4504-94B0-4A6D54597337}"/>
+    <hyperlink ref="D37" r:id="rId49" xr:uid="{4F366ACA-E9DC-4D82-A164-F3C23305A963}"/>
+    <hyperlink ref="C38" r:id="rId50" xr:uid="{1ED5BD43-7A12-48C2-BC69-8F0EBCC5B3A0}"/>
+    <hyperlink ref="D38" r:id="rId51" xr:uid="{F2EA09DA-74A9-46C8-AF66-8E4B1AB4C1B9}"/>
+    <hyperlink ref="C39" r:id="rId52" xr:uid="{049280BA-CFC9-44A0-A076-2331B0E40C26}"/>
+    <hyperlink ref="C40" r:id="rId53" xr:uid="{9C52C1E3-7BD1-4B41-A23E-81A351F47D54}"/>
+    <hyperlink ref="D40" r:id="rId54" xr:uid="{EC6045AC-7661-4396-876E-A185378B4D91}"/>
+    <hyperlink ref="C41" r:id="rId55" xr:uid="{D1BD7645-D58F-40F7-978F-383E3AB8995C}"/>
+    <hyperlink ref="D42" r:id="rId56" xr:uid="{6DA96B2C-01E1-4702-8D73-C6CB924302ED}"/>
+    <hyperlink ref="C42" r:id="rId57" xr:uid="{70FE4ABE-035F-4403-A099-051396E69EF1}"/>
+    <hyperlink ref="C43" r:id="rId58" xr:uid="{A6B885F7-852B-4C3F-896A-81B7A4085B52}"/>
+    <hyperlink ref="D45" r:id="rId59" xr:uid="{2AFA1DCA-150C-4E59-B51B-408C4EE4D9F1}"/>
+    <hyperlink ref="C45" r:id="rId60" xr:uid="{7C291294-21B9-4C11-8570-25513F54FB58}"/>
+    <hyperlink ref="C44" r:id="rId61" xr:uid="{CBEA5E2B-AF57-44B8-A639-1B5A04764DA8}"/>
+    <hyperlink ref="D44" r:id="rId62" display="https://books.googleusercontent.com/books/content?req=AKW5QacMsPlzkhSCOohiXYeGljWguMgUQZpwSe9jD-AwX2dY7j4q8PfiYB4m-J-mvsYJpatZ3-Jt4fsCZCAr6gcAHgo8XQBnTUMNt41l5rsg236daxIa9HqNBkAEk1oCCB_F_p0JSetKf7xs-kEVhTq-Qbn_wXgRDnmYyENLKcPb6eOAGx0Bl8OXNIKKcW3JtNG2tTvp5CGcdn6GZGCaZWldzk6J7MFZVTFAIRyRQU9JVsHd9EG09heBzto7hdDbfN9ero7r8UITPVO7i1XxfoE6k1EHShuXtPleOELjtFzm9VrzH7cn7fY" xr:uid="{90E85313-5E40-414D-9C42-229BB197B0DE}"/>
+    <hyperlink ref="C46" r:id="rId63" xr:uid="{F2BAF4A6-985D-44AC-9ECB-2096E65D0F5C}"/>
+    <hyperlink ref="D46" r:id="rId64" xr:uid="{E6F296C4-41E7-4352-9AA6-816879210698}"/>
+    <hyperlink ref="D41" r:id="rId65" xr:uid="{D0752B48-FE78-4894-B354-C5D73DF9CA15}"/>
+    <hyperlink ref="C34" r:id="rId66" xr:uid="{F807A32D-321E-479C-A405-AEA52B710761}"/>
+    <hyperlink ref="D39" r:id="rId67" xr:uid="{F5238FF9-1B3E-44DF-8E86-A8AF1DF0E7B8}"/>
+    <hyperlink ref="D4" r:id="rId68" xr:uid="{42D6A264-31A6-4020-A06D-9C7E670C6C08}"/>
+    <hyperlink ref="D8" r:id="rId69" xr:uid="{E8C2FCE3-F16F-4F33-B41F-B51CC701A4A4}"/>
+    <hyperlink ref="D15" r:id="rId70" xr:uid="{843C2440-BA5E-4D90-9378-93C3E01C200B}"/>
+    <hyperlink ref="D21" r:id="rId71" xr:uid="{DD74D994-8372-42CD-BF19-46124A3CD273}"/>
+    <hyperlink ref="D22" r:id="rId72" xr:uid="{5F4A6453-5015-45B2-9CDC-82539B189192}"/>
+    <hyperlink ref="D27" r:id="rId73" xr:uid="{4C200D5D-AAF2-4F57-8B13-ED2AA89BB3A8}"/>
+    <hyperlink ref="D34" r:id="rId74" xr:uid="{29DE1905-E118-44C4-826D-8384B72314A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId68"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId75"/>
 </worksheet>
 </file>
 
@@ -15372,7 +15413,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -17283,7 +17324,7 @@
         <v>99</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>172</v>
@@ -17308,7 +17349,7 @@
         <v>922</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>878</v>

--- a/public/data/data-duerer.xlsx
+++ b/public/data/data-duerer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\duk\InTaVia2023\data-import\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7397CC9D-6084-4EBF-ABF2-F67B50FB82FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89532730-5AD6-49CE-B340-0136D6DEDCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" firstSheet="1" activeTab="7" xr2:uid="{C25329CA-05B7-420C-A3AD-7BFC7999E524}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" firstSheet="1" activeTab="2" xr2:uid="{C25329CA-05B7-420C-A3AD-7BFC7999E524}"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4125" uniqueCount="1585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4126" uniqueCount="1585">
   <si>
     <t>id</t>
   </si>
@@ -7295,8 +7295,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -7511,6 +7511,9 @@
       </c>
       <c r="B21" t="s">
         <v>879</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>1523</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>880</v>
@@ -15413,7 +15416,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>

--- a/public/data/data-duerer.xlsx
+++ b/public/data/data-duerer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\duk\InTaVia2023\data-import\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89532730-5AD6-49CE-B340-0136D6DEDCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F901E4-AEBD-43CC-BA0A-5D8F062BF370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" firstSheet="1" activeTab="2" xr2:uid="{C25329CA-05B7-420C-A3AD-7BFC7999E524}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" tabRatio="647" firstSheet="4" activeTab="8" xr2:uid="{C25329CA-05B7-420C-A3AD-7BFC7999E524}"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="1" r:id="rId1"/>
@@ -7295,7 +7295,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -17369,14 +17369,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DE7CD6-3992-47BC-A701-56D724BB2518}">
   <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="60.17578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="100.64453125" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="13.1171875" customWidth="1"/>
+    <col min="5" max="5" width="30.64453125" customWidth="1"/>
     <col min="6" max="6" width="12.9375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.9375" bestFit="1" customWidth="1"/>
   </cols>
